--- a/Agreement.xlsx
+++ b/Agreement.xlsx
@@ -5,16 +5,16 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://myfrido-my.sharepoint.com/personal/aaradhya_s_myfrido_com/Documents/Agreements/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://myfrido-my.sharepoint.com/personal/aaradhya_s_myfrido_com/Documents/Apps_Webpages/Shipping Charges/Test-2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="973" documentId="8_{AC009F8E-9116-4888-9EFC-AA56D0FD1488}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5AE13B84-BA26-4EAE-8BEA-55C0EBAF1383}"/>
+  <xr:revisionPtr revIDLastSave="999" documentId="8_{AC009F8E-9116-4888-9EFC-AA56D0FD1488}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{159BFC7D-7BE6-4E9D-BEA7-157303065980}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{2516CB7A-8FD3-4E3F-BCBD-142F17A32557}"/>
+    <workbookView xWindow="43095" yWindow="0" windowWidth="14610" windowHeight="15585" activeTab="6" xr2:uid="{2516CB7A-8FD3-4E3F-BCBD-142F17A32557}"/>
   </bookViews>
   <sheets>
     <sheet name="Goswift" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="11" r:id="rId2"/>
+    <sheet name="options" sheetId="11" r:id="rId2"/>
     <sheet name="Zippee" sheetId="9" r:id="rId3"/>
     <sheet name="Shipyaari" sheetId="10" r:id="rId4"/>
     <sheet name="Delhivery" sheetId="7" r:id="rId5"/>
@@ -25,6 +25,9 @@
     <sheet name="Sheet1" sheetId="5" r:id="rId10"/>
     <sheet name="Reverse Shipping" sheetId="6" r:id="rId11"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">options!$A$1:$A$7</definedName>
+  </definedNames>
   <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -46,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1101" uniqueCount="269">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1297" uniqueCount="293">
   <si>
     <t>GoSwift</t>
   </si>
@@ -1136,6 +1139,78 @@
   <si>
     <t>WareIQ</t>
   </si>
+  <si>
+    <t>courier_name</t>
+  </si>
+  <si>
+    <t>Base_Weight</t>
+  </si>
+  <si>
+    <t>Offset_Weight</t>
+  </si>
+  <si>
+    <t>WIQ Smart Pricing_Surface_2Kg</t>
+  </si>
+  <si>
+    <t>WIQ Smart Pricing_Surface_5Kg</t>
+  </si>
+  <si>
+    <t>WIQ Smart Pricing_Surface_20Kg</t>
+  </si>
+  <si>
+    <t>WIQ Xpressbees Surface New</t>
+  </si>
+  <si>
+    <t>Ekart Surface</t>
+  </si>
+  <si>
+    <t>Xpressbees Air WIQ</t>
+  </si>
+  <si>
+    <t>WIQ Bluedart Air</t>
+  </si>
+  <si>
+    <t>WIQ Smart Pricing</t>
+  </si>
+  <si>
+    <t>Xpressbees Surface WIQ</t>
+  </si>
+  <si>
+    <t>Ecom Express</t>
+  </si>
+  <si>
+    <t>DTDC 10 KG</t>
+  </si>
+  <si>
+    <t>Xpressbees Surface 2KG</t>
+  </si>
+  <si>
+    <t>Xpressbees Reverse WIQ</t>
+  </si>
+  <si>
+    <t>Xpressbees Surface WIQ 5KG</t>
+  </si>
+  <si>
+    <t>Xpressbees Surface WIQ 10KG</t>
+  </si>
+  <si>
+    <t>Delhivery_5KG_SPL</t>
+  </si>
+  <si>
+    <t>Delhivery_2KG_SPL</t>
+  </si>
+  <si>
+    <t>Delhivery_SPL</t>
+  </si>
+  <si>
+    <t>zone</t>
+  </si>
+  <si>
+    <t>Base_Charges</t>
+  </si>
+  <si>
+    <t>Offset_charges</t>
+  </si>
 </sst>
 </file>
 
@@ -1147,7 +1222,7 @@
     <numFmt numFmtId="165" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="166" formatCode="0.0"/>
   </numFmts>
-  <fonts count="59" x14ac:knownFonts="1">
+  <fonts count="60" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1514,6 +1589,13 @@
     </font>
     <font>
       <sz val="8"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -2125,9 +2207,10 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="45" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="59" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="225">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -2442,77 +2525,42 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="57" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="57" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="57" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="56" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="56" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="56" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="57" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="57" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="57" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="55" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="55" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="55" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="39" fillId="5" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="41" fillId="6" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2534,40 +2582,75 @@
     <xf numFmtId="0" fontId="40" fillId="6" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="55" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="39" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="39" fillId="5" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="55" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="55" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="56" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="56" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="56" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="57" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="57" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="57" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="57" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="57" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="57" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="54" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2603,6 +2686,15 @@
     <xf numFmtId="0" fontId="7" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2615,19 +2707,36 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2641,32 +2750,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="54" fillId="10" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2714,9 +2797,10 @@
       <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal 2" xfId="2" xr:uid="{4396F778-4A33-40C5-9051-6EE7E4D6BFFA}"/>
   </cellStyles>
   <dxfs count="2">
     <dxf>
@@ -3076,7 +3160,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7EA9B537-67C9-432B-B5CC-9687E3E0BA17}">
   <dimension ref="B1:AZ112"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView topLeftCell="B9" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
@@ -3124,76 +3208,76 @@
       </c>
     </row>
     <row r="2" spans="2:44" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="132" t="s">
+      <c r="B2" s="169" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="133"/>
-      <c r="D2" s="133"/>
-      <c r="E2" s="133"/>
-      <c r="F2" s="133"/>
-      <c r="G2" s="134"/>
-      <c r="Q2" s="164" t="s">
+      <c r="C2" s="170"/>
+      <c r="D2" s="170"/>
+      <c r="E2" s="170"/>
+      <c r="F2" s="170"/>
+      <c r="G2" s="171"/>
+      <c r="Q2" s="141" t="s">
         <v>192</v>
       </c>
-      <c r="R2" s="165"/>
-      <c r="S2" s="165"/>
-      <c r="T2" s="165"/>
-      <c r="U2" s="165"/>
-      <c r="V2" s="166"/>
-      <c r="AE2" s="157" t="s">
+      <c r="R2" s="142"/>
+      <c r="S2" s="142"/>
+      <c r="T2" s="142"/>
+      <c r="U2" s="142"/>
+      <c r="V2" s="143"/>
+      <c r="AE2" s="144" t="s">
         <v>1</v>
       </c>
-      <c r="AF2" s="158"/>
-      <c r="AG2" s="162" t="s">
+      <c r="AF2" s="145"/>
+      <c r="AG2" s="149" t="s">
         <v>2</v>
       </c>
-      <c r="AM2" s="157" t="s">
+      <c r="AM2" s="144" t="s">
         <v>1</v>
       </c>
-      <c r="AN2" s="158"/>
-      <c r="AO2" s="162" t="s">
+      <c r="AN2" s="145"/>
+      <c r="AO2" s="149" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="3" spans="2:44" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="135"/>
-      <c r="C3" s="136"/>
-      <c r="D3" s="136"/>
-      <c r="E3" s="136"/>
-      <c r="F3" s="136"/>
-      <c r="G3" s="137"/>
-      <c r="Q3" s="167" t="s">
+      <c r="B3" s="172"/>
+      <c r="C3" s="173"/>
+      <c r="D3" s="173"/>
+      <c r="E3" s="173"/>
+      <c r="F3" s="173"/>
+      <c r="G3" s="174"/>
+      <c r="Q3" s="135" t="s">
         <v>187</v>
       </c>
-      <c r="R3" s="168"/>
-      <c r="S3" s="168"/>
-      <c r="T3" s="168"/>
-      <c r="U3" s="168"/>
-      <c r="V3" s="169"/>
-      <c r="AE3" s="159"/>
-      <c r="AF3" s="160"/>
-      <c r="AG3" s="163"/>
-      <c r="AM3" s="159"/>
-      <c r="AN3" s="160"/>
-      <c r="AO3" s="163"/>
+      <c r="R3" s="136"/>
+      <c r="S3" s="136"/>
+      <c r="T3" s="136"/>
+      <c r="U3" s="136"/>
+      <c r="V3" s="137"/>
+      <c r="AE3" s="146"/>
+      <c r="AF3" s="147"/>
+      <c r="AG3" s="150"/>
+      <c r="AM3" s="146"/>
+      <c r="AN3" s="147"/>
+      <c r="AO3" s="150"/>
     </row>
     <row r="4" spans="2:44" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="141" t="s">
+      <c r="B4" s="162" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="142"/>
-      <c r="D4" s="142"/>
-      <c r="E4" s="142"/>
-      <c r="F4" s="142"/>
-      <c r="G4" s="143"/>
-      <c r="I4" s="144" t="s">
+      <c r="C4" s="163"/>
+      <c r="D4" s="163"/>
+      <c r="E4" s="163"/>
+      <c r="F4" s="163"/>
+      <c r="G4" s="164"/>
+      <c r="I4" s="153" t="s">
         <v>5</v>
       </c>
-      <c r="J4" s="145"/>
-      <c r="K4" s="145"/>
-      <c r="L4" s="145"/>
-      <c r="M4" s="145"/>
-      <c r="N4" s="146"/>
+      <c r="J4" s="154"/>
+      <c r="K4" s="154"/>
+      <c r="L4" s="154"/>
+      <c r="M4" s="154"/>
+      <c r="N4" s="155"/>
       <c r="Q4" s="102" t="s">
         <v>13</v>
       </c>
@@ -3526,12 +3610,12 @@
       </c>
     </row>
     <row r="8" spans="2:44" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="138"/>
-      <c r="C8" s="139"/>
-      <c r="D8" s="139"/>
-      <c r="E8" s="139"/>
-      <c r="F8" s="139"/>
-      <c r="G8" s="140"/>
+      <c r="B8" s="175"/>
+      <c r="C8" s="157"/>
+      <c r="D8" s="157"/>
+      <c r="E8" s="157"/>
+      <c r="F8" s="157"/>
+      <c r="G8" s="158"/>
       <c r="Q8" s="104" t="s">
         <v>196</v>
       </c>
@@ -3588,14 +3672,14 @@
       </c>
     </row>
     <row r="9" spans="2:44" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="141" t="s">
+      <c r="B9" s="162" t="s">
         <v>31</v>
       </c>
-      <c r="C9" s="142"/>
-      <c r="D9" s="142"/>
-      <c r="E9" s="142"/>
-      <c r="F9" s="142"/>
-      <c r="G9" s="143"/>
+      <c r="C9" s="163"/>
+      <c r="D9" s="163"/>
+      <c r="E9" s="163"/>
+      <c r="F9" s="163"/>
+      <c r="G9" s="164"/>
       <c r="Q9" s="104" t="s">
         <v>197</v>
       </c>
@@ -3801,23 +3885,23 @@
       <c r="AE11" s="40" t="s">
         <v>37</v>
       </c>
-      <c r="AF11" s="155" t="s">
+      <c r="AF11" s="151" t="s">
         <v>38</v>
       </c>
-      <c r="AG11" s="155"/>
-      <c r="AH11" s="155"/>
-      <c r="AI11" s="155"/>
-      <c r="AJ11" s="156"/>
+      <c r="AG11" s="151"/>
+      <c r="AH11" s="151"/>
+      <c r="AI11" s="151"/>
+      <c r="AJ11" s="152"/>
       <c r="AM11" s="49" t="s">
         <v>39</v>
       </c>
-      <c r="AN11" s="161" t="s">
+      <c r="AN11" s="148" t="s">
         <v>40</v>
       </c>
-      <c r="AO11" s="161"/>
-      <c r="AP11" s="161"/>
-      <c r="AQ11" s="161"/>
-      <c r="AR11" s="161"/>
+      <c r="AO11" s="148"/>
+      <c r="AP11" s="148"/>
+      <c r="AQ11" s="148"/>
+      <c r="AR11" s="148"/>
     </row>
     <row r="12" spans="2:44" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B12" s="9" t="s">
@@ -3877,31 +3961,31 @@
       <c r="AE12" s="40" t="s">
         <v>42</v>
       </c>
-      <c r="AF12" s="155" t="s">
+      <c r="AF12" s="151" t="s">
         <v>43</v>
       </c>
-      <c r="AG12" s="155"/>
-      <c r="AH12" s="155"/>
-      <c r="AI12" s="155"/>
-      <c r="AJ12" s="156"/>
+      <c r="AG12" s="151"/>
+      <c r="AH12" s="151"/>
+      <c r="AI12" s="151"/>
+      <c r="AJ12" s="152"/>
       <c r="AM12" s="49" t="s">
         <v>44</v>
       </c>
-      <c r="AN12" s="161">
+      <c r="AN12" s="148">
         <v>5000</v>
       </c>
-      <c r="AO12" s="161"/>
-      <c r="AP12" s="161"/>
-      <c r="AQ12" s="161"/>
-      <c r="AR12" s="161"/>
+      <c r="AO12" s="148"/>
+      <c r="AP12" s="148"/>
+      <c r="AQ12" s="148"/>
+      <c r="AR12" s="148"/>
     </row>
     <row r="13" spans="2:44" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="138"/>
-      <c r="C13" s="139"/>
-      <c r="D13" s="139"/>
-      <c r="E13" s="139"/>
-      <c r="F13" s="139"/>
-      <c r="G13" s="140"/>
+      <c r="B13" s="175"/>
+      <c r="C13" s="157"/>
+      <c r="D13" s="157"/>
+      <c r="E13" s="157"/>
+      <c r="F13" s="157"/>
+      <c r="G13" s="158"/>
       <c r="Q13" s="104" t="s">
         <v>199</v>
       </c>
@@ -3923,33 +4007,33 @@
       <c r="AE13" s="40" t="s">
         <v>39</v>
       </c>
-      <c r="AF13" s="155" t="s">
+      <c r="AF13" s="151" t="s">
         <v>40</v>
       </c>
-      <c r="AG13" s="155"/>
-      <c r="AH13" s="155"/>
-      <c r="AI13" s="155"/>
-      <c r="AJ13" s="156"/>
+      <c r="AG13" s="151"/>
+      <c r="AH13" s="151"/>
+      <c r="AI13" s="151"/>
+      <c r="AJ13" s="152"/>
       <c r="AM13" s="49" t="s">
         <v>45</v>
       </c>
-      <c r="AN13" s="161" t="s">
+      <c r="AN13" s="148" t="s">
         <v>46</v>
       </c>
-      <c r="AO13" s="161"/>
-      <c r="AP13" s="161"/>
-      <c r="AQ13" s="161"/>
-      <c r="AR13" s="161"/>
+      <c r="AO13" s="148"/>
+      <c r="AP13" s="148"/>
+      <c r="AQ13" s="148"/>
+      <c r="AR13" s="148"/>
     </row>
     <row r="14" spans="2:44" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="141" t="s">
+      <c r="B14" s="162" t="s">
         <v>47</v>
       </c>
-      <c r="C14" s="142"/>
-      <c r="D14" s="142"/>
-      <c r="E14" s="142"/>
-      <c r="F14" s="142"/>
-      <c r="G14" s="143"/>
+      <c r="C14" s="163"/>
+      <c r="D14" s="163"/>
+      <c r="E14" s="163"/>
+      <c r="F14" s="163"/>
+      <c r="G14" s="164"/>
       <c r="Q14" s="104" t="s">
         <v>196</v>
       </c>
@@ -3971,23 +4055,23 @@
       <c r="AE14" s="40" t="s">
         <v>44</v>
       </c>
-      <c r="AF14" s="155">
+      <c r="AF14" s="151">
         <v>5000</v>
       </c>
-      <c r="AG14" s="155"/>
-      <c r="AH14" s="155"/>
-      <c r="AI14" s="155"/>
-      <c r="AJ14" s="156"/>
+      <c r="AG14" s="151"/>
+      <c r="AH14" s="151"/>
+      <c r="AI14" s="151"/>
+      <c r="AJ14" s="152"/>
       <c r="AM14" s="49" t="s">
         <v>48</v>
       </c>
-      <c r="AN14" s="161" t="s">
+      <c r="AN14" s="148" t="s">
         <v>49</v>
       </c>
-      <c r="AO14" s="161"/>
-      <c r="AP14" s="161"/>
-      <c r="AQ14" s="161"/>
-      <c r="AR14" s="161"/>
+      <c r="AO14" s="148"/>
+      <c r="AP14" s="148"/>
+      <c r="AQ14" s="148"/>
+      <c r="AR14" s="148"/>
     </row>
     <row r="15" spans="2:44" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B15" s="9" t="s">
@@ -4029,23 +4113,23 @@
       <c r="Q15" s="104" t="s">
         <v>39</v>
       </c>
-      <c r="R15" s="170" t="s">
+      <c r="R15" s="132" t="s">
         <v>200</v>
       </c>
-      <c r="S15" s="171"/>
-      <c r="T15" s="171"/>
-      <c r="U15" s="171"/>
-      <c r="V15" s="172"/>
+      <c r="S15" s="133"/>
+      <c r="T15" s="133"/>
+      <c r="U15" s="133"/>
+      <c r="V15" s="134"/>
       <c r="AE15" s="40" t="s">
         <v>50</v>
       </c>
-      <c r="AF15" s="155" t="s">
+      <c r="AF15" s="151" t="s">
         <v>46</v>
       </c>
-      <c r="AG15" s="155"/>
-      <c r="AH15" s="155"/>
-      <c r="AI15" s="155"/>
-      <c r="AJ15" s="156"/>
+      <c r="AG15" s="151"/>
+      <c r="AH15" s="151"/>
+      <c r="AI15" s="151"/>
+      <c r="AJ15" s="152"/>
     </row>
     <row r="16" spans="2:44" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B16" s="9" t="s">
@@ -4087,23 +4171,23 @@
       <c r="Q16" s="104" t="s">
         <v>37</v>
       </c>
-      <c r="R16" s="170" t="s">
+      <c r="R16" s="132" t="s">
         <v>201</v>
       </c>
-      <c r="S16" s="171"/>
-      <c r="T16" s="171"/>
-      <c r="U16" s="171"/>
-      <c r="V16" s="172"/>
+      <c r="S16" s="133"/>
+      <c r="T16" s="133"/>
+      <c r="U16" s="133"/>
+      <c r="V16" s="134"/>
       <c r="AE16" s="40" t="s">
         <v>53</v>
       </c>
-      <c r="AF16" s="155" t="s">
+      <c r="AF16" s="151" t="s">
         <v>49</v>
       </c>
-      <c r="AG16" s="155"/>
-      <c r="AH16" s="155"/>
-      <c r="AI16" s="155"/>
-      <c r="AJ16" s="156"/>
+      <c r="AG16" s="151"/>
+      <c r="AH16" s="151"/>
+      <c r="AI16" s="151"/>
+      <c r="AJ16" s="152"/>
     </row>
     <row r="17" spans="2:50" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B17" s="9" t="s">
@@ -4145,31 +4229,31 @@
       <c r="Q17" s="104" t="s">
         <v>202</v>
       </c>
-      <c r="R17" s="170">
+      <c r="R17" s="132">
         <v>5000</v>
       </c>
-      <c r="S17" s="171"/>
-      <c r="T17" s="171"/>
-      <c r="U17" s="171"/>
-      <c r="V17" s="172"/>
+      <c r="S17" s="133"/>
+      <c r="T17" s="133"/>
+      <c r="U17" s="133"/>
+      <c r="V17" s="134"/>
     </row>
     <row r="18" spans="2:50" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="138"/>
-      <c r="C18" s="139"/>
-      <c r="D18" s="139"/>
-      <c r="E18" s="139"/>
-      <c r="F18" s="139"/>
-      <c r="G18" s="140"/>
+      <c r="B18" s="175"/>
+      <c r="C18" s="157"/>
+      <c r="D18" s="157"/>
+      <c r="E18" s="157"/>
+      <c r="F18" s="157"/>
+      <c r="G18" s="158"/>
       <c r="Q18" s="104" t="s">
         <v>140</v>
       </c>
-      <c r="R18" s="173">
+      <c r="R18" s="138">
         <v>0.18</v>
       </c>
-      <c r="S18" s="174"/>
-      <c r="T18" s="174"/>
-      <c r="U18" s="174"/>
-      <c r="V18" s="175"/>
+      <c r="S18" s="139"/>
+      <c r="T18" s="139"/>
+      <c r="U18" s="139"/>
+      <c r="V18" s="140"/>
       <c r="AE18">
         <v>500</v>
       </c>
@@ -4190,24 +4274,24 @@
       </c>
     </row>
     <row r="19" spans="2:50" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="141" t="s">
+      <c r="B19" s="162" t="s">
         <v>56</v>
       </c>
-      <c r="C19" s="142"/>
-      <c r="D19" s="142"/>
-      <c r="E19" s="142"/>
-      <c r="F19" s="142"/>
-      <c r="G19" s="143"/>
+      <c r="C19" s="163"/>
+      <c r="D19" s="163"/>
+      <c r="E19" s="163"/>
+      <c r="F19" s="163"/>
+      <c r="G19" s="164"/>
       <c r="Q19" s="104" t="s">
         <v>203</v>
       </c>
-      <c r="R19" s="170" t="s">
+      <c r="R19" s="132" t="s">
         <v>204</v>
       </c>
-      <c r="S19" s="171"/>
-      <c r="T19" s="171"/>
-      <c r="U19" s="171"/>
-      <c r="V19" s="172"/>
+      <c r="S19" s="133"/>
+      <c r="T19" s="133"/>
+      <c r="U19" s="133"/>
+      <c r="V19" s="134"/>
       <c r="AE19">
         <v>1000</v>
       </c>
@@ -4336,14 +4420,14 @@
       <c r="N21" s="37">
         <v>627</v>
       </c>
-      <c r="Q21" s="167" t="s">
+      <c r="Q21" s="135" t="s">
         <v>189</v>
       </c>
-      <c r="R21" s="168"/>
-      <c r="S21" s="168"/>
-      <c r="T21" s="168"/>
-      <c r="U21" s="168"/>
-      <c r="V21" s="169"/>
+      <c r="R21" s="136"/>
+      <c r="S21" s="136"/>
+      <c r="T21" s="136"/>
+      <c r="U21" s="136"/>
+      <c r="V21" s="137"/>
       <c r="AE21">
         <v>3000</v>
       </c>
@@ -4448,12 +4532,12 @@
       </c>
     </row>
     <row r="23" spans="2:50" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B23" s="138"/>
-      <c r="C23" s="139"/>
-      <c r="D23" s="139"/>
-      <c r="E23" s="139"/>
-      <c r="F23" s="139"/>
-      <c r="G23" s="140"/>
+      <c r="B23" s="175"/>
+      <c r="C23" s="157"/>
+      <c r="D23" s="157"/>
+      <c r="E23" s="157"/>
+      <c r="F23" s="157"/>
+      <c r="G23" s="158"/>
       <c r="Q23" s="104" t="s">
         <v>193</v>
       </c>
@@ -4497,14 +4581,14 @@
       </c>
     </row>
     <row r="24" spans="2:50" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B24" s="141" t="s">
+      <c r="B24" s="162" t="s">
         <v>61</v>
       </c>
-      <c r="C24" s="142"/>
-      <c r="D24" s="142"/>
-      <c r="E24" s="142"/>
-      <c r="F24" s="142"/>
-      <c r="G24" s="143"/>
+      <c r="C24" s="163"/>
+      <c r="D24" s="163"/>
+      <c r="E24" s="163"/>
+      <c r="F24" s="163"/>
+      <c r="G24" s="164"/>
       <c r="I24" s="8"/>
       <c r="J24" s="8" t="s">
         <v>14</v>
@@ -4603,13 +4687,13 @@
       <c r="Q25" s="104" t="s">
         <v>39</v>
       </c>
-      <c r="R25" s="170" t="s">
+      <c r="R25" s="132" t="s">
         <v>200</v>
       </c>
-      <c r="S25" s="171"/>
-      <c r="T25" s="171"/>
-      <c r="U25" s="171"/>
-      <c r="V25" s="172"/>
+      <c r="S25" s="133"/>
+      <c r="T25" s="133"/>
+      <c r="U25" s="133"/>
+      <c r="V25" s="134"/>
       <c r="AE25">
         <v>7000</v>
       </c>
@@ -4679,13 +4763,13 @@
       <c r="Q26" s="104" t="s">
         <v>37</v>
       </c>
-      <c r="R26" s="170" t="s">
+      <c r="R26" s="132" t="s">
         <v>201</v>
       </c>
-      <c r="S26" s="171"/>
-      <c r="T26" s="171"/>
-      <c r="U26" s="171"/>
-      <c r="V26" s="172"/>
+      <c r="S26" s="133"/>
+      <c r="T26" s="133"/>
+      <c r="U26" s="133"/>
+      <c r="V26" s="134"/>
       <c r="AE26">
         <v>8000</v>
       </c>
@@ -4750,13 +4834,13 @@
       <c r="Q27" s="104" t="s">
         <v>39</v>
       </c>
-      <c r="R27" s="170" t="s">
+      <c r="R27" s="132" t="s">
         <v>200</v>
       </c>
-      <c r="S27" s="171"/>
-      <c r="T27" s="171"/>
-      <c r="U27" s="171"/>
-      <c r="V27" s="172"/>
+      <c r="S27" s="133"/>
+      <c r="T27" s="133"/>
+      <c r="U27" s="133"/>
+      <c r="V27" s="134"/>
       <c r="AE27">
         <v>9000</v>
       </c>
@@ -4814,13 +4898,13 @@
       <c r="Q28" s="104" t="s">
         <v>37</v>
       </c>
-      <c r="R28" s="170" t="s">
+      <c r="R28" s="132" t="s">
         <v>201</v>
       </c>
-      <c r="S28" s="171"/>
-      <c r="T28" s="171"/>
-      <c r="U28" s="171"/>
-      <c r="V28" s="172"/>
+      <c r="S28" s="133"/>
+      <c r="T28" s="133"/>
+      <c r="U28" s="133"/>
+      <c r="V28" s="134"/>
       <c r="AE28">
         <v>10000</v>
       </c>
@@ -4849,14 +4933,14 @@
       </c>
     </row>
     <row r="29" spans="2:50" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B29" s="141" t="s">
+      <c r="B29" s="162" t="s">
         <v>63</v>
       </c>
-      <c r="C29" s="142"/>
-      <c r="D29" s="142"/>
-      <c r="E29" s="142"/>
-      <c r="F29" s="142"/>
-      <c r="G29" s="143"/>
+      <c r="C29" s="163"/>
+      <c r="D29" s="163"/>
+      <c r="E29" s="163"/>
+      <c r="F29" s="163"/>
+      <c r="G29" s="164"/>
       <c r="I29" s="8">
         <v>4000</v>
       </c>
@@ -4883,13 +4967,13 @@
       <c r="Q29" s="104" t="s">
         <v>202</v>
       </c>
-      <c r="R29" s="170">
+      <c r="R29" s="132">
         <v>5000</v>
       </c>
-      <c r="S29" s="171"/>
-      <c r="T29" s="171"/>
-      <c r="U29" s="171"/>
-      <c r="V29" s="172"/>
+      <c r="S29" s="133"/>
+      <c r="T29" s="133"/>
+      <c r="U29" s="133"/>
+      <c r="V29" s="134"/>
       <c r="AE29" s="42" t="s">
         <v>64</v>
       </c>
@@ -4955,13 +5039,13 @@
       <c r="Q30" s="104" t="s">
         <v>140</v>
       </c>
-      <c r="R30" s="173">
+      <c r="R30" s="138">
         <v>0.18</v>
       </c>
-      <c r="S30" s="174"/>
-      <c r="T30" s="174"/>
-      <c r="U30" s="174"/>
-      <c r="V30" s="175"/>
+      <c r="S30" s="139"/>
+      <c r="T30" s="139"/>
+      <c r="U30" s="139"/>
+      <c r="V30" s="140"/>
       <c r="AE30">
         <v>500</v>
       </c>
@@ -5069,13 +5153,13 @@
       <c r="Q31" s="104" t="s">
         <v>203</v>
       </c>
-      <c r="R31" s="170" t="s">
+      <c r="R31" s="132" t="s">
         <v>204</v>
       </c>
-      <c r="S31" s="171"/>
-      <c r="T31" s="171"/>
-      <c r="U31" s="171"/>
-      <c r="V31" s="172"/>
+      <c r="S31" s="133"/>
+      <c r="T31" s="133"/>
+      <c r="U31" s="133"/>
+      <c r="V31" s="134"/>
       <c r="AE31">
         <v>1000</v>
       </c>
@@ -5255,22 +5339,22 @@
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="10"/>
-      <c r="I33" s="154" t="s">
+      <c r="I33" s="168" t="s">
         <v>73</v>
       </c>
-      <c r="J33" s="154"/>
-      <c r="K33" s="154"/>
-      <c r="L33" s="154"/>
-      <c r="M33" s="154"/>
-      <c r="N33" s="154"/>
-      <c r="Q33" s="167" t="s">
+      <c r="J33" s="168"/>
+      <c r="K33" s="168"/>
+      <c r="L33" s="168"/>
+      <c r="M33" s="168"/>
+      <c r="N33" s="168"/>
+      <c r="Q33" s="135" t="s">
         <v>205</v>
       </c>
-      <c r="R33" s="168"/>
-      <c r="S33" s="168"/>
-      <c r="T33" s="168"/>
-      <c r="U33" s="168"/>
-      <c r="V33" s="169"/>
+      <c r="R33" s="136"/>
+      <c r="S33" s="136"/>
+      <c r="T33" s="136"/>
+      <c r="U33" s="136"/>
+      <c r="V33" s="137"/>
       <c r="AE33">
         <v>3000</v>
       </c>
@@ -5337,13 +5421,13 @@
       <c r="B34" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="C34" s="151" t="s">
+      <c r="C34" s="165" t="s">
         <v>74</v>
       </c>
-      <c r="D34" s="152"/>
-      <c r="E34" s="152"/>
-      <c r="F34" s="152"/>
-      <c r="G34" s="153"/>
+      <c r="D34" s="166"/>
+      <c r="E34" s="166"/>
+      <c r="F34" s="166"/>
+      <c r="G34" s="167"/>
       <c r="Q34" s="107" t="s">
         <v>13</v>
       </c>
@@ -5428,13 +5512,13 @@
       <c r="B35" s="9" t="s">
         <v>75</v>
       </c>
-      <c r="C35" s="147" t="s">
+      <c r="C35" s="156" t="s">
         <v>76</v>
       </c>
-      <c r="D35" s="139"/>
-      <c r="E35" s="139"/>
-      <c r="F35" s="139"/>
-      <c r="G35" s="140"/>
+      <c r="D35" s="157"/>
+      <c r="E35" s="157"/>
+      <c r="F35" s="157"/>
+      <c r="G35" s="158"/>
       <c r="Q35" s="104" t="s">
         <v>193</v>
       </c>
@@ -5519,13 +5603,13 @@
       <c r="B36" s="9" t="s">
         <v>77</v>
       </c>
-      <c r="C36" s="147" t="s">
+      <c r="C36" s="156" t="s">
         <v>78</v>
       </c>
-      <c r="D36" s="139"/>
-      <c r="E36" s="139"/>
-      <c r="F36" s="139"/>
-      <c r="G36" s="140"/>
+      <c r="D36" s="157"/>
+      <c r="E36" s="157"/>
+      <c r="F36" s="157"/>
+      <c r="G36" s="158"/>
       <c r="Q36" s="104" t="s">
         <v>194</v>
       </c>
@@ -5610,13 +5694,13 @@
       <c r="B37" s="11" t="s">
         <v>79</v>
       </c>
-      <c r="C37" s="148" t="s">
+      <c r="C37" s="159" t="s">
         <v>80</v>
       </c>
-      <c r="D37" s="149"/>
-      <c r="E37" s="149"/>
-      <c r="F37" s="149"/>
-      <c r="G37" s="150"/>
+      <c r="D37" s="160"/>
+      <c r="E37" s="160"/>
+      <c r="F37" s="160"/>
+      <c r="G37" s="161"/>
       <c r="Q37" s="104" t="s">
         <v>195</v>
       </c>
@@ -6131,13 +6215,13 @@
       <c r="Q45" s="104" t="s">
         <v>206</v>
       </c>
-      <c r="R45" s="170" t="s">
+      <c r="R45" s="132" t="s">
         <v>207</v>
       </c>
-      <c r="S45" s="171"/>
-      <c r="T45" s="171"/>
-      <c r="U45" s="171"/>
-      <c r="V45" s="172"/>
+      <c r="S45" s="133"/>
+      <c r="T45" s="133"/>
+      <c r="U45" s="133"/>
+      <c r="V45" s="134"/>
       <c r="AM45">
         <v>5000</v>
       </c>
@@ -6181,13 +6265,13 @@
       <c r="Q46" s="104" t="s">
         <v>37</v>
       </c>
-      <c r="R46" s="170" t="s">
+      <c r="R46" s="132" t="s">
         <v>201</v>
       </c>
-      <c r="S46" s="171"/>
-      <c r="T46" s="171"/>
-      <c r="U46" s="171"/>
-      <c r="V46" s="172"/>
+      <c r="S46" s="133"/>
+      <c r="T46" s="133"/>
+      <c r="U46" s="133"/>
+      <c r="V46" s="134"/>
       <c r="AM46">
         <v>6000</v>
       </c>
@@ -6231,13 +6315,13 @@
       <c r="Q47" s="104" t="s">
         <v>202</v>
       </c>
-      <c r="R47" s="170">
+      <c r="R47" s="132">
         <v>5000</v>
       </c>
-      <c r="S47" s="171"/>
-      <c r="T47" s="171"/>
-      <c r="U47" s="171"/>
-      <c r="V47" s="172"/>
+      <c r="S47" s="133"/>
+      <c r="T47" s="133"/>
+      <c r="U47" s="133"/>
+      <c r="V47" s="134"/>
       <c r="AM47">
         <v>7000</v>
       </c>
@@ -6281,25 +6365,25 @@
       <c r="Q48" s="104" t="s">
         <v>140</v>
       </c>
-      <c r="R48" s="173">
+      <c r="R48" s="138">
         <v>0.18</v>
       </c>
-      <c r="S48" s="174"/>
-      <c r="T48" s="174"/>
-      <c r="U48" s="174"/>
-      <c r="V48" s="175"/>
+      <c r="S48" s="139"/>
+      <c r="T48" s="139"/>
+      <c r="U48" s="139"/>
+      <c r="V48" s="140"/>
     </row>
     <row r="49" spans="17:47" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="Q49" s="104" t="s">
         <v>203</v>
       </c>
-      <c r="R49" s="170" t="s">
+      <c r="R49" s="132" t="s">
         <v>208</v>
       </c>
-      <c r="S49" s="171"/>
-      <c r="T49" s="171"/>
-      <c r="U49" s="171"/>
-      <c r="V49" s="172"/>
+      <c r="S49" s="133"/>
+      <c r="T49" s="133"/>
+      <c r="U49" s="133"/>
+      <c r="V49" s="134"/>
     </row>
     <row r="51" spans="17:47" x14ac:dyDescent="0.25">
       <c r="AO51" s="54">
@@ -8030,49 +8114,6 @@
     </row>
   </sheetData>
   <mergeCells count="52">
-    <mergeCell ref="R49:V49"/>
-    <mergeCell ref="Q33:V33"/>
-    <mergeCell ref="R45:V45"/>
-    <mergeCell ref="R46:V46"/>
-    <mergeCell ref="R47:V47"/>
-    <mergeCell ref="R48:V48"/>
-    <mergeCell ref="R27:V27"/>
-    <mergeCell ref="R28:V28"/>
-    <mergeCell ref="R29:V29"/>
-    <mergeCell ref="R30:V30"/>
-    <mergeCell ref="R31:V31"/>
-    <mergeCell ref="R18:V18"/>
-    <mergeCell ref="R19:V19"/>
-    <mergeCell ref="Q21:V21"/>
-    <mergeCell ref="R25:V25"/>
-    <mergeCell ref="R26:V26"/>
-    <mergeCell ref="Q2:V2"/>
-    <mergeCell ref="Q3:V3"/>
-    <mergeCell ref="R15:V15"/>
-    <mergeCell ref="R16:V16"/>
-    <mergeCell ref="R17:V17"/>
-    <mergeCell ref="AE2:AF3"/>
-    <mergeCell ref="AN11:AR11"/>
-    <mergeCell ref="AN12:AR12"/>
-    <mergeCell ref="AN13:AR13"/>
-    <mergeCell ref="AN14:AR14"/>
-    <mergeCell ref="AM2:AN3"/>
-    <mergeCell ref="AO2:AO3"/>
-    <mergeCell ref="AG2:AG3"/>
-    <mergeCell ref="AF16:AJ16"/>
-    <mergeCell ref="AF11:AJ11"/>
-    <mergeCell ref="AF12:AJ12"/>
-    <mergeCell ref="AF13:AJ13"/>
-    <mergeCell ref="AF14:AJ14"/>
-    <mergeCell ref="AF15:AJ15"/>
-    <mergeCell ref="I4:N4"/>
-    <mergeCell ref="C35:G35"/>
-    <mergeCell ref="C36:G36"/>
-    <mergeCell ref="C37:G37"/>
-    <mergeCell ref="B29:G29"/>
-    <mergeCell ref="C34:G34"/>
-    <mergeCell ref="B24:G24"/>
-    <mergeCell ref="I33:N33"/>
     <mergeCell ref="B2:G3"/>
     <mergeCell ref="B8:G8"/>
     <mergeCell ref="B13:G13"/>
@@ -8082,6 +8123,49 @@
     <mergeCell ref="B9:G9"/>
     <mergeCell ref="B14:G14"/>
     <mergeCell ref="B19:G19"/>
+    <mergeCell ref="I4:N4"/>
+    <mergeCell ref="C35:G35"/>
+    <mergeCell ref="C36:G36"/>
+    <mergeCell ref="C37:G37"/>
+    <mergeCell ref="B29:G29"/>
+    <mergeCell ref="C34:G34"/>
+    <mergeCell ref="B24:G24"/>
+    <mergeCell ref="I33:N33"/>
+    <mergeCell ref="AF16:AJ16"/>
+    <mergeCell ref="AF11:AJ11"/>
+    <mergeCell ref="AF12:AJ12"/>
+    <mergeCell ref="AF13:AJ13"/>
+    <mergeCell ref="AF14:AJ14"/>
+    <mergeCell ref="AF15:AJ15"/>
+    <mergeCell ref="AE2:AF3"/>
+    <mergeCell ref="AN11:AR11"/>
+    <mergeCell ref="AN12:AR12"/>
+    <mergeCell ref="AN13:AR13"/>
+    <mergeCell ref="AN14:AR14"/>
+    <mergeCell ref="AM2:AN3"/>
+    <mergeCell ref="AO2:AO3"/>
+    <mergeCell ref="AG2:AG3"/>
+    <mergeCell ref="Q2:V2"/>
+    <mergeCell ref="Q3:V3"/>
+    <mergeCell ref="R15:V15"/>
+    <mergeCell ref="R16:V16"/>
+    <mergeCell ref="R17:V17"/>
+    <mergeCell ref="R18:V18"/>
+    <mergeCell ref="R19:V19"/>
+    <mergeCell ref="Q21:V21"/>
+    <mergeCell ref="R25:V25"/>
+    <mergeCell ref="R26:V26"/>
+    <mergeCell ref="R27:V27"/>
+    <mergeCell ref="R28:V28"/>
+    <mergeCell ref="R29:V29"/>
+    <mergeCell ref="R30:V30"/>
+    <mergeCell ref="R31:V31"/>
+    <mergeCell ref="R49:V49"/>
+    <mergeCell ref="Q33:V33"/>
+    <mergeCell ref="R45:V45"/>
+    <mergeCell ref="R46:V46"/>
+    <mergeCell ref="R47:V47"/>
+    <mergeCell ref="R48:V48"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -8123,18 +8207,18 @@
       <c r="F2" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="R2" s="132" t="s">
+      <c r="R2" s="169" t="s">
         <v>0</v>
       </c>
-      <c r="S2" s="133"/>
-      <c r="T2" s="133"/>
-      <c r="U2" s="133"/>
-      <c r="V2" s="133"/>
-      <c r="W2" s="134"/>
-      <c r="AA2" s="187" t="s">
+      <c r="S2" s="170"/>
+      <c r="T2" s="170"/>
+      <c r="U2" s="170"/>
+      <c r="V2" s="170"/>
+      <c r="W2" s="171"/>
+      <c r="AA2" s="190" t="s">
         <v>107</v>
       </c>
-      <c r="AB2" s="187"/>
+      <c r="AB2" s="190"/>
     </row>
     <row r="3" spans="1:43" ht="24" x14ac:dyDescent="0.25">
       <c r="A3" s="9" t="s">
@@ -8155,12 +8239,12 @@
       <c r="F3" s="10">
         <v>70</v>
       </c>
-      <c r="R3" s="135"/>
-      <c r="S3" s="136"/>
-      <c r="T3" s="136"/>
-      <c r="U3" s="136"/>
-      <c r="V3" s="136"/>
-      <c r="W3" s="137"/>
+      <c r="R3" s="172"/>
+      <c r="S3" s="173"/>
+      <c r="T3" s="173"/>
+      <c r="U3" s="173"/>
+      <c r="V3" s="173"/>
+      <c r="W3" s="174"/>
       <c r="Z3" s="211" t="s">
         <v>65</v>
       </c>
@@ -8815,12 +8899,12 @@
       </c>
     </row>
     <row r="11" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A11" s="138"/>
-      <c r="B11" s="139"/>
-      <c r="C11" s="139"/>
-      <c r="D11" s="139"/>
-      <c r="E11" s="139"/>
-      <c r="F11" s="140"/>
+      <c r="A11" s="175"/>
+      <c r="B11" s="157"/>
+      <c r="C11" s="157"/>
+      <c r="D11" s="157"/>
+      <c r="E11" s="157"/>
+      <c r="F11" s="158"/>
       <c r="R11" s="96">
         <v>6000</v>
       </c>
@@ -9350,13 +9434,13 @@
       <c r="A20" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="B20" s="151" t="s">
+      <c r="B20" s="165" t="s">
         <v>74</v>
       </c>
-      <c r="C20" s="152"/>
-      <c r="D20" s="152"/>
-      <c r="E20" s="152"/>
-      <c r="F20" s="153"/>
+      <c r="C20" s="166"/>
+      <c r="D20" s="166"/>
+      <c r="E20" s="166"/>
+      <c r="F20" s="167"/>
       <c r="R20" s="96">
         <v>1000</v>
       </c>
@@ -9414,13 +9498,13 @@
       <c r="A21" s="9" t="s">
         <v>75</v>
       </c>
-      <c r="B21" s="147" t="s">
+      <c r="B21" s="156" t="s">
         <v>76</v>
       </c>
-      <c r="C21" s="139"/>
-      <c r="D21" s="139"/>
-      <c r="E21" s="139"/>
-      <c r="F21" s="140"/>
+      <c r="C21" s="157"/>
+      <c r="D21" s="157"/>
+      <c r="E21" s="157"/>
+      <c r="F21" s="158"/>
       <c r="R21" s="96">
         <v>2000</v>
       </c>
@@ -9503,13 +9587,13 @@
       <c r="A22" s="9" t="s">
         <v>77</v>
       </c>
-      <c r="B22" s="147" t="s">
+      <c r="B22" s="156" t="s">
         <v>78</v>
       </c>
-      <c r="C22" s="139"/>
-      <c r="D22" s="139"/>
-      <c r="E22" s="139"/>
-      <c r="F22" s="140"/>
+      <c r="C22" s="157"/>
+      <c r="D22" s="157"/>
+      <c r="E22" s="157"/>
+      <c r="F22" s="158"/>
       <c r="R22" s="96">
         <v>3000</v>
       </c>
@@ -9592,13 +9676,13 @@
       <c r="A23" s="11" t="s">
         <v>79</v>
       </c>
-      <c r="B23" s="148" t="s">
+      <c r="B23" s="159" t="s">
         <v>80</v>
       </c>
-      <c r="C23" s="149"/>
-      <c r="D23" s="149"/>
-      <c r="E23" s="149"/>
-      <c r="F23" s="150"/>
+      <c r="C23" s="160"/>
+      <c r="D23" s="160"/>
+      <c r="E23" s="160"/>
+      <c r="F23" s="161"/>
       <c r="R23" s="96">
         <v>4000</v>
       </c>
@@ -11484,6 +11568,11 @@
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="B21:F21"/>
+    <mergeCell ref="B22:F22"/>
+    <mergeCell ref="B23:F23"/>
+    <mergeCell ref="A11:F11"/>
+    <mergeCell ref="B20:F20"/>
     <mergeCell ref="AF3:AK3"/>
     <mergeCell ref="Z17:AE17"/>
     <mergeCell ref="AF17:AK17"/>
@@ -11492,11 +11581,6 @@
     <mergeCell ref="S15:T16"/>
     <mergeCell ref="AA15:AB16"/>
     <mergeCell ref="Z3:AE3"/>
-    <mergeCell ref="B21:F21"/>
-    <mergeCell ref="B22:F22"/>
-    <mergeCell ref="B23:F23"/>
-    <mergeCell ref="A11:F11"/>
-    <mergeCell ref="B20:F20"/>
   </mergeCells>
   <conditionalFormatting sqref="AM7:AQ12">
     <cfRule type="cellIs" dxfId="1" priority="2" operator="lessThan">
@@ -11795,8 +11879,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{80685638-A3EA-49DF-BFC3-BD1F806B5EFC}">
   <dimension ref="A1:A7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11808,36 +11892,42 @@
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>266</v>
+        <v>65</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>247</v>
+        <v>105</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>105</v>
+        <v>267</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>65</v>
+        <v>268</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>268</v>
+        <v>247</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:A7" xr:uid="{80685638-A3EA-49DF-BFC3-BD1F806B5EFC}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:A7">
+      <sortCondition ref="A1:A7"/>
+    </sortState>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -12911,13 +13001,13 @@
       <c r="J10" s="49" t="s">
         <v>39</v>
       </c>
-      <c r="K10" s="161" t="s">
+      <c r="K10" s="148" t="s">
         <v>40</v>
       </c>
-      <c r="L10" s="161"/>
-      <c r="M10" s="161"/>
-      <c r="N10" s="161"/>
-      <c r="O10" s="161"/>
+      <c r="L10" s="148"/>
+      <c r="M10" s="148"/>
+      <c r="N10" s="148"/>
+      <c r="O10" s="148"/>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" s="86" t="s">
@@ -12941,13 +13031,13 @@
       <c r="J11" s="49" t="s">
         <v>44</v>
       </c>
-      <c r="K11" s="161">
+      <c r="K11" s="148">
         <v>5000</v>
       </c>
-      <c r="L11" s="161"/>
-      <c r="M11" s="161"/>
-      <c r="N11" s="161"/>
-      <c r="O11" s="161"/>
+      <c r="L11" s="148"/>
+      <c r="M11" s="148"/>
+      <c r="N11" s="148"/>
+      <c r="O11" s="148"/>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12" s="86" t="s">
@@ -12971,13 +13061,13 @@
       <c r="J12" s="49" t="s">
         <v>45</v>
       </c>
-      <c r="K12" s="161" t="s">
+      <c r="K12" s="148" t="s">
         <v>46</v>
       </c>
-      <c r="L12" s="161"/>
-      <c r="M12" s="161"/>
-      <c r="N12" s="161"/>
-      <c r="O12" s="161"/>
+      <c r="L12" s="148"/>
+      <c r="M12" s="148"/>
+      <c r="N12" s="148"/>
+      <c r="O12" s="148"/>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13" s="86" t="s">
@@ -12993,13 +13083,13 @@
       <c r="J13" s="49" t="s">
         <v>48</v>
       </c>
-      <c r="K13" s="161" t="s">
+      <c r="K13" s="148" t="s">
         <v>49</v>
       </c>
-      <c r="L13" s="161"/>
-      <c r="M13" s="161"/>
-      <c r="N13" s="161"/>
-      <c r="O13" s="161"/>
+      <c r="L13" s="148"/>
+      <c r="M13" s="148"/>
+      <c r="N13" s="148"/>
+      <c r="O13" s="148"/>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14" s="86" t="s">
@@ -13653,47 +13743,126 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A721FCDE-2CD0-4911-A469-C8AC9C7819F9}">
-  <dimension ref="B1:G51"/>
+  <dimension ref="B1:P96"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:G3"/>
+    <sheetView tabSelected="1" topLeftCell="K1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="P1" sqref="P1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="17.5703125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="30" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="5.140625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B2" s="132" t="s">
+    <row r="1" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="K1" t="s">
+        <v>269</v>
+      </c>
+      <c r="L1" t="s">
+        <v>270</v>
+      </c>
+      <c r="M1" t="s">
+        <v>271</v>
+      </c>
+      <c r="N1" t="s">
+        <v>290</v>
+      </c>
+      <c r="O1" t="s">
+        <v>291</v>
+      </c>
+      <c r="P1" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="2" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B2" s="169" t="s">
         <v>145</v>
       </c>
-      <c r="C2" s="133"/>
-      <c r="D2" s="133"/>
-      <c r="E2" s="133"/>
-      <c r="F2" s="133"/>
-      <c r="G2" s="134"/>
-    </row>
-    <row r="3" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B3" s="135"/>
-      <c r="C3" s="136"/>
-      <c r="D3" s="136"/>
-      <c r="E3" s="136"/>
-      <c r="F3" s="136"/>
-      <c r="G3" s="137"/>
-    </row>
-    <row r="4" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B4" s="141" t="s">
+      <c r="C2" s="170"/>
+      <c r="D2" s="170"/>
+      <c r="E2" s="170"/>
+      <c r="F2" s="170"/>
+      <c r="G2" s="171"/>
+      <c r="K2" t="s">
+        <v>65</v>
+      </c>
+      <c r="L2">
+        <v>0.5</v>
+      </c>
+      <c r="M2">
+        <v>0.5</v>
+      </c>
+      <c r="N2" t="s">
+        <v>66</v>
+      </c>
+      <c r="O2">
+        <v>23</v>
+      </c>
+      <c r="P2">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="3" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B3" s="172"/>
+      <c r="C3" s="173"/>
+      <c r="D3" s="173"/>
+      <c r="E3" s="173"/>
+      <c r="F3" s="173"/>
+      <c r="G3" s="174"/>
+      <c r="K3" t="s">
+        <v>65</v>
+      </c>
+      <c r="L3">
+        <v>0.5</v>
+      </c>
+      <c r="M3">
+        <v>0.5</v>
+      </c>
+      <c r="N3" t="s">
+        <v>67</v>
+      </c>
+      <c r="O3">
+        <v>29</v>
+      </c>
+      <c r="P3">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="4" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B4" s="162" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="142"/>
-      <c r="D4" s="142"/>
-      <c r="E4" s="142"/>
-      <c r="F4" s="142"/>
-      <c r="G4" s="143"/>
-    </row>
-    <row r="5" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="C4" s="163"/>
+      <c r="D4" s="163"/>
+      <c r="E4" s="163"/>
+      <c r="F4" s="163"/>
+      <c r="G4" s="164"/>
+      <c r="K4" t="s">
+        <v>65</v>
+      </c>
+      <c r="L4">
+        <v>0.5</v>
+      </c>
+      <c r="M4">
+        <v>0.5</v>
+      </c>
+      <c r="N4" t="s">
+        <v>68</v>
+      </c>
+      <c r="O4">
+        <v>41</v>
+      </c>
+      <c r="P4">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="5" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B5" s="9" t="s">
         <v>13</v>
       </c>
@@ -13712,8 +13881,26 @@
       <c r="G5" s="10" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="6" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="K5" t="s">
+        <v>65</v>
+      </c>
+      <c r="L5">
+        <v>0.5</v>
+      </c>
+      <c r="M5">
+        <v>0.5</v>
+      </c>
+      <c r="N5" t="s">
+        <v>69</v>
+      </c>
+      <c r="O5">
+        <v>46</v>
+      </c>
+      <c r="P5">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="6" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B6" s="9" t="s">
         <v>23</v>
       </c>
@@ -13732,8 +13919,26 @@
       <c r="G6" s="10">
         <v>53</v>
       </c>
-    </row>
-    <row r="7" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="K6" t="s">
+        <v>65</v>
+      </c>
+      <c r="L6">
+        <v>0.5</v>
+      </c>
+      <c r="M6">
+        <v>0.5</v>
+      </c>
+      <c r="N6" t="s">
+        <v>70</v>
+      </c>
+      <c r="O6">
+        <v>61</v>
+      </c>
+      <c r="P6">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="7" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B7" s="9" t="s">
         <v>26</v>
       </c>
@@ -13752,26 +13957,80 @@
       <c r="G7" s="10">
         <v>53</v>
       </c>
-    </row>
-    <row r="8" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B8" s="193"/>
-      <c r="C8" s="187"/>
-      <c r="D8" s="187"/>
-      <c r="E8" s="187"/>
-      <c r="F8" s="187"/>
-      <c r="G8" s="188"/>
-    </row>
-    <row r="9" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B9" s="141" t="s">
+      <c r="K7" t="s">
+        <v>288</v>
+      </c>
+      <c r="L7">
+        <v>2</v>
+      </c>
+      <c r="M7">
+        <v>1</v>
+      </c>
+      <c r="N7" t="s">
+        <v>66</v>
+      </c>
+      <c r="O7">
+        <v>55</v>
+      </c>
+      <c r="P7">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="8" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B8" s="189"/>
+      <c r="C8" s="190"/>
+      <c r="D8" s="190"/>
+      <c r="E8" s="190"/>
+      <c r="F8" s="190"/>
+      <c r="G8" s="191"/>
+      <c r="K8" t="s">
+        <v>288</v>
+      </c>
+      <c r="L8">
+        <v>2</v>
+      </c>
+      <c r="M8">
+        <v>1</v>
+      </c>
+      <c r="N8" t="s">
+        <v>67</v>
+      </c>
+      <c r="O8">
+        <v>73</v>
+      </c>
+      <c r="P8">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="9" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B9" s="162" t="s">
         <v>31</v>
       </c>
-      <c r="C9" s="142"/>
-      <c r="D9" s="142"/>
-      <c r="E9" s="142"/>
-      <c r="F9" s="142"/>
-      <c r="G9" s="143"/>
-    </row>
-    <row r="10" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="C9" s="163"/>
+      <c r="D9" s="163"/>
+      <c r="E9" s="163"/>
+      <c r="F9" s="163"/>
+      <c r="G9" s="164"/>
+      <c r="K9" t="s">
+        <v>288</v>
+      </c>
+      <c r="L9">
+        <v>2</v>
+      </c>
+      <c r="M9">
+        <v>1</v>
+      </c>
+      <c r="N9" t="s">
+        <v>68</v>
+      </c>
+      <c r="O9">
+        <v>79</v>
+      </c>
+      <c r="P9">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="10" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B10" s="9" t="s">
         <v>13</v>
       </c>
@@ -13790,8 +14049,26 @@
       <c r="G10" s="10" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="11" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="K10" t="s">
+        <v>288</v>
+      </c>
+      <c r="L10">
+        <v>2</v>
+      </c>
+      <c r="M10">
+        <v>1</v>
+      </c>
+      <c r="N10" t="s">
+        <v>69</v>
+      </c>
+      <c r="O10">
+        <v>95</v>
+      </c>
+      <c r="P10">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="11" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B11" s="9" t="s">
         <v>23</v>
       </c>
@@ -13810,8 +14087,26 @@
       <c r="G11" s="10">
         <v>61</v>
       </c>
-    </row>
-    <row r="12" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="K11" t="s">
+        <v>288</v>
+      </c>
+      <c r="L11">
+        <v>2</v>
+      </c>
+      <c r="M11">
+        <v>1</v>
+      </c>
+      <c r="N11" t="s">
+        <v>70</v>
+      </c>
+      <c r="O11">
+        <v>116</v>
+      </c>
+      <c r="P11">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="12" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B12" s="9" t="s">
         <v>26</v>
       </c>
@@ -13830,26 +14125,80 @@
       <c r="G12" s="10">
         <v>61</v>
       </c>
-    </row>
-    <row r="13" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B13" s="193"/>
-      <c r="C13" s="187"/>
-      <c r="D13" s="187"/>
-      <c r="E13" s="187"/>
-      <c r="F13" s="187"/>
-      <c r="G13" s="188"/>
-    </row>
-    <row r="14" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B14" s="141" t="s">
+      <c r="K12" t="s">
+        <v>287</v>
+      </c>
+      <c r="L12">
+        <v>5</v>
+      </c>
+      <c r="M12">
+        <v>1</v>
+      </c>
+      <c r="N12" t="s">
+        <v>66</v>
+      </c>
+      <c r="O12">
+        <v>107</v>
+      </c>
+      <c r="P12">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="13" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B13" s="189"/>
+      <c r="C13" s="190"/>
+      <c r="D13" s="190"/>
+      <c r="E13" s="190"/>
+      <c r="F13" s="190"/>
+      <c r="G13" s="191"/>
+      <c r="K13" t="s">
+        <v>287</v>
+      </c>
+      <c r="L13">
+        <v>5</v>
+      </c>
+      <c r="M13">
+        <v>1</v>
+      </c>
+      <c r="N13" t="s">
+        <v>67</v>
+      </c>
+      <c r="O13">
+        <v>114</v>
+      </c>
+      <c r="P13">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="14" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B14" s="162" t="s">
         <v>47</v>
       </c>
-      <c r="C14" s="142"/>
-      <c r="D14" s="142"/>
-      <c r="E14" s="142"/>
-      <c r="F14" s="142"/>
-      <c r="G14" s="143"/>
-    </row>
-    <row r="15" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="C14" s="163"/>
+      <c r="D14" s="163"/>
+      <c r="E14" s="163"/>
+      <c r="F14" s="163"/>
+      <c r="G14" s="164"/>
+      <c r="K14" t="s">
+        <v>287</v>
+      </c>
+      <c r="L14">
+        <v>5</v>
+      </c>
+      <c r="M14">
+        <v>1</v>
+      </c>
+      <c r="N14" t="s">
+        <v>68</v>
+      </c>
+      <c r="O14">
+        <v>118</v>
+      </c>
+      <c r="P14">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="15" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B15" s="9" t="s">
         <v>13</v>
       </c>
@@ -13868,8 +14217,26 @@
       <c r="G15" s="10" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="16" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="K15" t="s">
+        <v>287</v>
+      </c>
+      <c r="L15">
+        <v>5</v>
+      </c>
+      <c r="M15">
+        <v>1</v>
+      </c>
+      <c r="N15" t="s">
+        <v>69</v>
+      </c>
+      <c r="O15">
+        <v>134</v>
+      </c>
+      <c r="P15">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="16" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B16" s="9" t="s">
         <v>51</v>
       </c>
@@ -13888,8 +14255,26 @@
       <c r="G16" s="10">
         <v>116</v>
       </c>
-    </row>
-    <row r="17" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="K16" t="s">
+        <v>287</v>
+      </c>
+      <c r="L16">
+        <v>5</v>
+      </c>
+      <c r="M16">
+        <v>1</v>
+      </c>
+      <c r="N16" t="s">
+        <v>70</v>
+      </c>
+      <c r="O16">
+        <v>154</v>
+      </c>
+      <c r="P16">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="17" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B17" s="9" t="s">
         <v>54</v>
       </c>
@@ -13908,26 +14293,80 @@
       <c r="G17" s="10">
         <v>29</v>
       </c>
-    </row>
-    <row r="18" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B18" s="193"/>
-      <c r="C18" s="187"/>
-      <c r="D18" s="187"/>
-      <c r="E18" s="187"/>
-      <c r="F18" s="187"/>
-      <c r="G18" s="188"/>
-    </row>
-    <row r="19" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B19" s="141" t="s">
+      <c r="K17" t="s">
+        <v>289</v>
+      </c>
+      <c r="L17">
+        <v>0.5</v>
+      </c>
+      <c r="M17">
+        <v>0.5</v>
+      </c>
+      <c r="N17" t="s">
+        <v>66</v>
+      </c>
+      <c r="O17">
+        <v>23</v>
+      </c>
+      <c r="P17">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="18" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B18" s="189"/>
+      <c r="C18" s="190"/>
+      <c r="D18" s="190"/>
+      <c r="E18" s="190"/>
+      <c r="F18" s="190"/>
+      <c r="G18" s="191"/>
+      <c r="K18" t="s">
+        <v>289</v>
+      </c>
+      <c r="L18">
+        <v>0.5</v>
+      </c>
+      <c r="M18">
+        <v>0.5</v>
+      </c>
+      <c r="N18" t="s">
+        <v>67</v>
+      </c>
+      <c r="O18">
+        <v>27</v>
+      </c>
+      <c r="P18">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="19" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B19" s="162" t="s">
         <v>56</v>
       </c>
-      <c r="C19" s="142"/>
-      <c r="D19" s="142"/>
-      <c r="E19" s="142"/>
-      <c r="F19" s="142"/>
-      <c r="G19" s="143"/>
-    </row>
-    <row r="20" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="C19" s="163"/>
+      <c r="D19" s="163"/>
+      <c r="E19" s="163"/>
+      <c r="F19" s="163"/>
+      <c r="G19" s="164"/>
+      <c r="K19" t="s">
+        <v>289</v>
+      </c>
+      <c r="L19">
+        <v>0.5</v>
+      </c>
+      <c r="M19">
+        <v>0.5</v>
+      </c>
+      <c r="N19" t="s">
+        <v>68</v>
+      </c>
+      <c r="O19">
+        <v>32</v>
+      </c>
+      <c r="P19">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="20" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B20" s="9" t="s">
         <v>13</v>
       </c>
@@ -13946,8 +14385,26 @@
       <c r="G20" s="10" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="21" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="K20" t="s">
+        <v>289</v>
+      </c>
+      <c r="L20">
+        <v>0.5</v>
+      </c>
+      <c r="M20">
+        <v>0.5</v>
+      </c>
+      <c r="N20" t="s">
+        <v>69</v>
+      </c>
+      <c r="O20">
+        <v>37</v>
+      </c>
+      <c r="P20">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="21" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B21" s="9" t="s">
         <v>57</v>
       </c>
@@ -13966,8 +14423,26 @@
       <c r="G21" s="10">
         <v>154</v>
       </c>
-    </row>
-    <row r="22" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="K21" t="s">
+        <v>289</v>
+      </c>
+      <c r="L21">
+        <v>0.5</v>
+      </c>
+      <c r="M21">
+        <v>0.5</v>
+      </c>
+      <c r="N21" t="s">
+        <v>70</v>
+      </c>
+      <c r="O21">
+        <v>53</v>
+      </c>
+      <c r="P21">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="22" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B22" s="9" t="s">
         <v>59</v>
       </c>
@@ -13986,26 +14461,80 @@
       <c r="G22" s="10">
         <v>29</v>
       </c>
-    </row>
-    <row r="23" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B23" s="193"/>
-      <c r="C23" s="187"/>
-      <c r="D23" s="187"/>
-      <c r="E23" s="187"/>
-      <c r="F23" s="187"/>
-      <c r="G23" s="188"/>
-    </row>
-    <row r="24" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B24" s="141" t="s">
+      <c r="K22" t="s">
+        <v>282</v>
+      </c>
+      <c r="L22">
+        <v>10</v>
+      </c>
+      <c r="M22">
+        <v>1</v>
+      </c>
+      <c r="N22" t="s">
+        <v>66</v>
+      </c>
+      <c r="O22">
+        <v>161.69999999999999</v>
+      </c>
+      <c r="P22">
+        <v>12.1</v>
+      </c>
+    </row>
+    <row r="23" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B23" s="189"/>
+      <c r="C23" s="190"/>
+      <c r="D23" s="190"/>
+      <c r="E23" s="190"/>
+      <c r="F23" s="190"/>
+      <c r="G23" s="191"/>
+      <c r="K23" t="s">
+        <v>282</v>
+      </c>
+      <c r="L23">
+        <v>10</v>
+      </c>
+      <c r="M23">
+        <v>1</v>
+      </c>
+      <c r="N23" t="s">
+        <v>67</v>
+      </c>
+      <c r="O23">
+        <v>184.8</v>
+      </c>
+      <c r="P23">
+        <v>14.3</v>
+      </c>
+    </row>
+    <row r="24" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B24" s="162" t="s">
         <v>61</v>
       </c>
-      <c r="C24" s="142"/>
-      <c r="D24" s="142"/>
-      <c r="E24" s="142"/>
-      <c r="F24" s="142"/>
-      <c r="G24" s="143"/>
-    </row>
-    <row r="25" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="C24" s="163"/>
+      <c r="D24" s="163"/>
+      <c r="E24" s="163"/>
+      <c r="F24" s="163"/>
+      <c r="G24" s="164"/>
+      <c r="K24" t="s">
+        <v>282</v>
+      </c>
+      <c r="L24">
+        <v>10</v>
+      </c>
+      <c r="M24">
+        <v>1</v>
+      </c>
+      <c r="N24" t="s">
+        <v>68</v>
+      </c>
+      <c r="O24">
+        <v>220</v>
+      </c>
+      <c r="P24">
+        <v>16.5</v>
+      </c>
+    </row>
+    <row r="25" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B25" s="9" t="s">
         <v>13</v>
       </c>
@@ -14024,8 +14553,26 @@
       <c r="G25" s="10" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="26" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="K25" t="s">
+        <v>282</v>
+      </c>
+      <c r="L25">
+        <v>10</v>
+      </c>
+      <c r="M25">
+        <v>1</v>
+      </c>
+      <c r="N25" t="s">
+        <v>69</v>
+      </c>
+      <c r="O25">
+        <v>243.1</v>
+      </c>
+      <c r="P25">
+        <v>18.7</v>
+      </c>
+    </row>
+    <row r="26" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B26" s="9" t="s">
         <v>62</v>
       </c>
@@ -14044,8 +14591,26 @@
       <c r="G26" s="10">
         <v>316</v>
       </c>
-    </row>
-    <row r="27" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="K26" t="s">
+        <v>282</v>
+      </c>
+      <c r="L26">
+        <v>10</v>
+      </c>
+      <c r="M26">
+        <v>1</v>
+      </c>
+      <c r="N26" t="s">
+        <v>70</v>
+      </c>
+      <c r="O26">
+        <v>243.1</v>
+      </c>
+      <c r="P26">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="27" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B27" s="9" t="s">
         <v>59</v>
       </c>
@@ -14064,26 +14629,80 @@
       <c r="G27" s="10">
         <v>15</v>
       </c>
-    </row>
-    <row r="28" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="K27" t="s">
+        <v>281</v>
+      </c>
+      <c r="L27">
+        <v>0.5</v>
+      </c>
+      <c r="M27">
+        <v>0.5</v>
+      </c>
+      <c r="N27" t="s">
+        <v>66</v>
+      </c>
+      <c r="O27">
+        <v>23</v>
+      </c>
+      <c r="P27">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="28" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B28" s="9"/>
       <c r="C28" s="8"/>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="10"/>
-    </row>
-    <row r="29" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B29" s="141" t="s">
+      <c r="K28" t="s">
+        <v>281</v>
+      </c>
+      <c r="L28">
+        <v>0.5</v>
+      </c>
+      <c r="M28">
+        <v>0.5</v>
+      </c>
+      <c r="N28" t="s">
+        <v>67</v>
+      </c>
+      <c r="O28">
+        <v>29</v>
+      </c>
+      <c r="P28">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="29" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B29" s="162" t="s">
         <v>63</v>
       </c>
-      <c r="C29" s="142"/>
-      <c r="D29" s="142"/>
-      <c r="E29" s="142"/>
-      <c r="F29" s="142"/>
-      <c r="G29" s="143"/>
-    </row>
-    <row r="30" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="C29" s="163"/>
+      <c r="D29" s="163"/>
+      <c r="E29" s="163"/>
+      <c r="F29" s="163"/>
+      <c r="G29" s="164"/>
+      <c r="K29" t="s">
+        <v>281</v>
+      </c>
+      <c r="L29">
+        <v>0.5</v>
+      </c>
+      <c r="M29">
+        <v>0.5</v>
+      </c>
+      <c r="N29" t="s">
+        <v>68</v>
+      </c>
+      <c r="O29">
+        <v>41</v>
+      </c>
+      <c r="P29">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="30" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B30" s="9" t="s">
         <v>13</v>
       </c>
@@ -14102,8 +14721,26 @@
       <c r="G30" s="10" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="31" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="K30" t="s">
+        <v>281</v>
+      </c>
+      <c r="L30">
+        <v>0.5</v>
+      </c>
+      <c r="M30">
+        <v>0.5</v>
+      </c>
+      <c r="N30" t="s">
+        <v>69</v>
+      </c>
+      <c r="O30">
+        <v>46</v>
+      </c>
+      <c r="P30">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="31" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B31" s="9" t="s">
         <v>72</v>
       </c>
@@ -14122,8 +14759,26 @@
       <c r="G31" s="10" t="s">
         <v>146</v>
       </c>
-    </row>
-    <row r="32" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="K31" t="s">
+        <v>281</v>
+      </c>
+      <c r="L31">
+        <v>0.5</v>
+      </c>
+      <c r="M31">
+        <v>0.5</v>
+      </c>
+      <c r="N31" t="s">
+        <v>70</v>
+      </c>
+      <c r="O31">
+        <v>61</v>
+      </c>
+      <c r="P31">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="32" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B32" s="9" t="s">
         <v>54</v>
       </c>
@@ -14142,93 +14797,294 @@
       <c r="G32" s="10" t="s">
         <v>146</v>
       </c>
-    </row>
-    <row r="33" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="K32" t="s">
+        <v>276</v>
+      </c>
+      <c r="L32">
+        <v>0.5</v>
+      </c>
+      <c r="M32">
+        <v>0.5</v>
+      </c>
+      <c r="N32" t="s">
+        <v>66</v>
+      </c>
+      <c r="O32">
+        <v>23</v>
+      </c>
+      <c r="P32">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="33" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B33" s="9"/>
       <c r="C33" s="8"/>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="10"/>
-    </row>
-    <row r="34" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="K33" t="s">
+        <v>276</v>
+      </c>
+      <c r="L33">
+        <v>0.5</v>
+      </c>
+      <c r="M33">
+        <v>0.5</v>
+      </c>
+      <c r="N33" t="s">
+        <v>67</v>
+      </c>
+      <c r="O33">
+        <v>27</v>
+      </c>
+      <c r="P33">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="34" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B34" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="C34" s="191" t="s">
+      <c r="C34" s="187" t="s">
         <v>74</v>
       </c>
-      <c r="D34" s="191"/>
-      <c r="E34" s="191"/>
-      <c r="F34" s="191"/>
-      <c r="G34" s="192"/>
-    </row>
-    <row r="35" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="D34" s="187"/>
+      <c r="E34" s="187"/>
+      <c r="F34" s="187"/>
+      <c r="G34" s="188"/>
+      <c r="K34" t="s">
+        <v>276</v>
+      </c>
+      <c r="L34">
+        <v>0.5</v>
+      </c>
+      <c r="M34">
+        <v>0.5</v>
+      </c>
+      <c r="N34" t="s">
+        <v>68</v>
+      </c>
+      <c r="O34">
+        <v>32</v>
+      </c>
+      <c r="P34">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="35" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B35" s="9" t="s">
         <v>75</v>
       </c>
-      <c r="C35" s="187" t="s">
+      <c r="C35" s="190" t="s">
         <v>147</v>
       </c>
-      <c r="D35" s="187"/>
-      <c r="E35" s="187"/>
-      <c r="F35" s="187"/>
-      <c r="G35" s="188"/>
-    </row>
-    <row r="36" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="D35" s="190"/>
+      <c r="E35" s="190"/>
+      <c r="F35" s="190"/>
+      <c r="G35" s="191"/>
+      <c r="K35" t="s">
+        <v>276</v>
+      </c>
+      <c r="L35">
+        <v>0.5</v>
+      </c>
+      <c r="M35">
+        <v>0.5</v>
+      </c>
+      <c r="N35" t="s">
+        <v>69</v>
+      </c>
+      <c r="O35">
+        <v>37</v>
+      </c>
+      <c r="P35">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="36" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B36" s="9" t="s">
         <v>77</v>
       </c>
-      <c r="C36" s="187" t="s">
+      <c r="C36" s="190" t="s">
         <v>78</v>
       </c>
-      <c r="D36" s="187"/>
-      <c r="E36" s="187"/>
-      <c r="F36" s="187"/>
-      <c r="G36" s="188"/>
-    </row>
-    <row r="37" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D36" s="190"/>
+      <c r="E36" s="190"/>
+      <c r="F36" s="190"/>
+      <c r="G36" s="191"/>
+      <c r="K36" t="s">
+        <v>276</v>
+      </c>
+      <c r="L36">
+        <v>0.5</v>
+      </c>
+      <c r="M36">
+        <v>0.5</v>
+      </c>
+      <c r="N36" t="s">
+        <v>70</v>
+      </c>
+      <c r="O36">
+        <v>53</v>
+      </c>
+      <c r="P36">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="37" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B37" s="11" t="s">
         <v>79</v>
       </c>
-      <c r="C37" s="189" t="s">
+      <c r="C37" s="192" t="s">
         <v>148</v>
       </c>
-      <c r="D37" s="189"/>
-      <c r="E37" s="189"/>
-      <c r="F37" s="189"/>
-      <c r="G37" s="190"/>
-    </row>
-    <row r="39" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="40" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B40" s="132" t="s">
+      <c r="D37" s="192"/>
+      <c r="E37" s="192"/>
+      <c r="F37" s="192"/>
+      <c r="G37" s="193"/>
+      <c r="K37" t="s">
+        <v>278</v>
+      </c>
+      <c r="L37">
+        <v>0.5</v>
+      </c>
+      <c r="M37">
+        <v>0.5</v>
+      </c>
+      <c r="N37" t="s">
+        <v>66</v>
+      </c>
+      <c r="O37">
+        <v>23</v>
+      </c>
+      <c r="P37">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="38" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="K38" t="s">
+        <v>278</v>
+      </c>
+      <c r="L38">
+        <v>0.5</v>
+      </c>
+      <c r="M38">
+        <v>0.5</v>
+      </c>
+      <c r="N38" t="s">
+        <v>67</v>
+      </c>
+      <c r="O38">
+        <v>29</v>
+      </c>
+      <c r="P38">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="39" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="K39" t="s">
+        <v>278</v>
+      </c>
+      <c r="L39">
+        <v>0.5</v>
+      </c>
+      <c r="M39">
+        <v>0.5</v>
+      </c>
+      <c r="N39" t="s">
+        <v>68</v>
+      </c>
+      <c r="O39">
+        <v>41</v>
+      </c>
+      <c r="P39">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="40" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B40" s="169" t="s">
         <v>149</v>
       </c>
-      <c r="C40" s="133"/>
-      <c r="D40" s="133"/>
-      <c r="E40" s="133"/>
-      <c r="F40" s="133"/>
-      <c r="G40" s="134"/>
-    </row>
-    <row r="41" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B41" s="135"/>
-      <c r="C41" s="136"/>
-      <c r="D41" s="136"/>
-      <c r="E41" s="136"/>
-      <c r="F41" s="136"/>
-      <c r="G41" s="137"/>
-    </row>
-    <row r="42" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B42" s="141" t="s">
+      <c r="C40" s="170"/>
+      <c r="D40" s="170"/>
+      <c r="E40" s="170"/>
+      <c r="F40" s="170"/>
+      <c r="G40" s="171"/>
+      <c r="K40" t="s">
+        <v>278</v>
+      </c>
+      <c r="L40">
+        <v>0.5</v>
+      </c>
+      <c r="M40">
+        <v>0.5</v>
+      </c>
+      <c r="N40" t="s">
+        <v>69</v>
+      </c>
+      <c r="O40">
+        <v>46</v>
+      </c>
+      <c r="P40">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="41" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B41" s="172"/>
+      <c r="C41" s="173"/>
+      <c r="D41" s="173"/>
+      <c r="E41" s="173"/>
+      <c r="F41" s="173"/>
+      <c r="G41" s="174"/>
+      <c r="K41" t="s">
+        <v>278</v>
+      </c>
+      <c r="L41">
+        <v>0.5</v>
+      </c>
+      <c r="M41">
+        <v>0.5</v>
+      </c>
+      <c r="N41" t="s">
+        <v>70</v>
+      </c>
+      <c r="O41">
+        <v>61</v>
+      </c>
+      <c r="P41">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="42" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B42" s="162" t="s">
         <v>4</v>
       </c>
-      <c r="C42" s="142"/>
-      <c r="D42" s="142"/>
-      <c r="E42" s="142"/>
-      <c r="F42" s="142"/>
-      <c r="G42" s="143"/>
-    </row>
-    <row r="43" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="C42" s="163"/>
+      <c r="D42" s="163"/>
+      <c r="E42" s="163"/>
+      <c r="F42" s="163"/>
+      <c r="G42" s="164"/>
+      <c r="K42" t="s">
+        <v>279</v>
+      </c>
+      <c r="L42">
+        <v>1</v>
+      </c>
+      <c r="M42">
+        <v>1</v>
+      </c>
+      <c r="N42" t="s">
+        <v>66</v>
+      </c>
+      <c r="O42">
+        <v>45</v>
+      </c>
+      <c r="P42">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="43" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B43" s="8" t="s">
         <v>13</v>
       </c>
@@ -14247,8 +15103,26 @@
       <c r="G43" s="8" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="44" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="K43" t="s">
+        <v>279</v>
+      </c>
+      <c r="L43">
+        <v>1</v>
+      </c>
+      <c r="M43">
+        <v>1</v>
+      </c>
+      <c r="N43" t="s">
+        <v>67</v>
+      </c>
+      <c r="O43">
+        <v>54</v>
+      </c>
+      <c r="P43">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="44" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B44" s="8" t="s">
         <v>23</v>
       </c>
@@ -14267,8 +15141,26 @@
       <c r="G44" s="8">
         <v>88</v>
       </c>
-    </row>
-    <row r="45" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="K44" t="s">
+        <v>279</v>
+      </c>
+      <c r="L44">
+        <v>1</v>
+      </c>
+      <c r="M44">
+        <v>1</v>
+      </c>
+      <c r="N44" t="s">
+        <v>68</v>
+      </c>
+      <c r="O44">
+        <v>63</v>
+      </c>
+      <c r="P44">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="45" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B45" s="8" t="s">
         <v>26</v>
       </c>
@@ -14287,8 +15179,26 @@
       <c r="G45" s="8">
         <v>49</v>
       </c>
-    </row>
-    <row r="46" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="K45" t="s">
+        <v>279</v>
+      </c>
+      <c r="L45">
+        <v>1</v>
+      </c>
+      <c r="M45">
+        <v>1</v>
+      </c>
+      <c r="N45" t="s">
+        <v>69</v>
+      </c>
+      <c r="O45">
+        <v>73</v>
+      </c>
+      <c r="P45">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="46" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B46" s="8" t="s">
         <v>139</v>
       </c>
@@ -14307,8 +15217,26 @@
       <c r="G46" s="8">
         <v>138</v>
       </c>
-    </row>
-    <row r="47" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="K46" t="s">
+        <v>279</v>
+      </c>
+      <c r="L46">
+        <v>1</v>
+      </c>
+      <c r="M46">
+        <v>1</v>
+      </c>
+      <c r="N46" t="s">
+        <v>70</v>
+      </c>
+      <c r="O46">
+        <v>106</v>
+      </c>
+      <c r="P46">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="47" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B47" s="8" t="s">
         <v>41</v>
       </c>
@@ -14327,8 +15255,26 @@
       <c r="G47" s="8">
         <v>45</v>
       </c>
-    </row>
-    <row r="48" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="K47" t="s">
+        <v>274</v>
+      </c>
+      <c r="L47">
+        <v>20</v>
+      </c>
+      <c r="M47">
+        <v>1</v>
+      </c>
+      <c r="N47" t="s">
+        <v>66</v>
+      </c>
+      <c r="O47">
+        <v>290</v>
+      </c>
+      <c r="P47">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="48" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B48" s="8" t="s">
         <v>36</v>
       </c>
@@ -14347,8 +15293,26 @@
       <c r="G48" s="8">
         <v>251</v>
       </c>
-    </row>
-    <row r="49" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="K48" t="s">
+        <v>274</v>
+      </c>
+      <c r="L48">
+        <v>20</v>
+      </c>
+      <c r="M48">
+        <v>1</v>
+      </c>
+      <c r="N48" t="s">
+        <v>67</v>
+      </c>
+      <c r="O48">
+        <v>299</v>
+      </c>
+      <c r="P48">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="49" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B49" s="8" t="s">
         <v>41</v>
       </c>
@@ -14367,8 +15331,26 @@
       <c r="G49" s="8">
         <v>41</v>
       </c>
-    </row>
-    <row r="50" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="K49" t="s">
+        <v>274</v>
+      </c>
+      <c r="L49">
+        <v>20</v>
+      </c>
+      <c r="M49">
+        <v>1</v>
+      </c>
+      <c r="N49" t="s">
+        <v>68</v>
+      </c>
+      <c r="O49">
+        <v>299</v>
+      </c>
+      <c r="P49">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="50" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B50" s="8" t="s">
         <v>52</v>
       </c>
@@ -14387,8 +15369,26 @@
       <c r="G50" s="8">
         <v>475</v>
       </c>
-    </row>
-    <row r="51" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="K50" t="s">
+        <v>274</v>
+      </c>
+      <c r="L50">
+        <v>20</v>
+      </c>
+      <c r="M50">
+        <v>1</v>
+      </c>
+      <c r="N50" t="s">
+        <v>69</v>
+      </c>
+      <c r="O50">
+        <v>308</v>
+      </c>
+      <c r="P50">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="51" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B51" s="8" t="s">
         <v>55</v>
       </c>
@@ -14407,9 +15407,932 @@
       <c r="G51" s="8">
         <v>41</v>
       </c>
+      <c r="K51" t="s">
+        <v>274</v>
+      </c>
+      <c r="L51">
+        <v>20</v>
+      </c>
+      <c r="M51">
+        <v>1</v>
+      </c>
+      <c r="N51" t="s">
+        <v>70</v>
+      </c>
+      <c r="O51">
+        <v>316</v>
+      </c>
+      <c r="P51">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="52" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="K52" t="s">
+        <v>272</v>
+      </c>
+      <c r="L52">
+        <v>2</v>
+      </c>
+      <c r="M52">
+        <v>1</v>
+      </c>
+      <c r="N52" t="s">
+        <v>66</v>
+      </c>
+      <c r="O52">
+        <v>55</v>
+      </c>
+      <c r="P52">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="53" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="K53" t="s">
+        <v>272</v>
+      </c>
+      <c r="L53">
+        <v>2</v>
+      </c>
+      <c r="M53">
+        <v>1</v>
+      </c>
+      <c r="N53" t="s">
+        <v>67</v>
+      </c>
+      <c r="O53">
+        <v>73</v>
+      </c>
+      <c r="P53">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="54" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="K54" t="s">
+        <v>272</v>
+      </c>
+      <c r="L54">
+        <v>2</v>
+      </c>
+      <c r="M54">
+        <v>1</v>
+      </c>
+      <c r="N54" t="s">
+        <v>68</v>
+      </c>
+      <c r="O54">
+        <v>79</v>
+      </c>
+      <c r="P54">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="55" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="K55" t="s">
+        <v>272</v>
+      </c>
+      <c r="L55">
+        <v>2</v>
+      </c>
+      <c r="M55">
+        <v>1</v>
+      </c>
+      <c r="N55" t="s">
+        <v>69</v>
+      </c>
+      <c r="O55">
+        <v>95</v>
+      </c>
+      <c r="P55">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="56" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="K56" t="s">
+        <v>272</v>
+      </c>
+      <c r="L56">
+        <v>2</v>
+      </c>
+      <c r="M56">
+        <v>1</v>
+      </c>
+      <c r="N56" t="s">
+        <v>70</v>
+      </c>
+      <c r="O56">
+        <v>116</v>
+      </c>
+      <c r="P56">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="57" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="K57" t="s">
+        <v>273</v>
+      </c>
+      <c r="L57">
+        <v>5</v>
+      </c>
+      <c r="M57">
+        <v>1</v>
+      </c>
+      <c r="N57" t="s">
+        <v>66</v>
+      </c>
+      <c r="O57">
+        <v>107</v>
+      </c>
+      <c r="P57">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="58" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="K58" t="s">
+        <v>273</v>
+      </c>
+      <c r="L58">
+        <v>5</v>
+      </c>
+      <c r="M58">
+        <v>1</v>
+      </c>
+      <c r="N58" t="s">
+        <v>67</v>
+      </c>
+      <c r="O58">
+        <v>114</v>
+      </c>
+      <c r="P58">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="59" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="K59" t="s">
+        <v>273</v>
+      </c>
+      <c r="L59">
+        <v>5</v>
+      </c>
+      <c r="M59">
+        <v>1</v>
+      </c>
+      <c r="N59" t="s">
+        <v>68</v>
+      </c>
+      <c r="O59">
+        <v>118</v>
+      </c>
+      <c r="P59">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="60" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="K60" t="s">
+        <v>273</v>
+      </c>
+      <c r="L60">
+        <v>5</v>
+      </c>
+      <c r="M60">
+        <v>1</v>
+      </c>
+      <c r="N60" t="s">
+        <v>69</v>
+      </c>
+      <c r="O60">
+        <v>134</v>
+      </c>
+      <c r="P60">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="61" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="K61" t="s">
+        <v>273</v>
+      </c>
+      <c r="L61">
+        <v>5</v>
+      </c>
+      <c r="M61">
+        <v>1</v>
+      </c>
+      <c r="N61" t="s">
+        <v>70</v>
+      </c>
+      <c r="O61">
+        <v>154</v>
+      </c>
+      <c r="P61">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="62" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="K62" t="s">
+        <v>275</v>
+      </c>
+      <c r="L62">
+        <v>0.5</v>
+      </c>
+      <c r="M62">
+        <v>0.5</v>
+      </c>
+      <c r="N62" t="s">
+        <v>66</v>
+      </c>
+      <c r="O62">
+        <v>23</v>
+      </c>
+      <c r="P62">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="63" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="K63" t="s">
+        <v>275</v>
+      </c>
+      <c r="L63">
+        <v>0.5</v>
+      </c>
+      <c r="M63">
+        <v>0.5</v>
+      </c>
+      <c r="N63" t="s">
+        <v>67</v>
+      </c>
+      <c r="O63">
+        <v>27</v>
+      </c>
+      <c r="P63">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="64" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="K64" t="s">
+        <v>275</v>
+      </c>
+      <c r="L64">
+        <v>0.5</v>
+      </c>
+      <c r="M64">
+        <v>0.5</v>
+      </c>
+      <c r="N64" t="s">
+        <v>68</v>
+      </c>
+      <c r="O64">
+        <v>32</v>
+      </c>
+      <c r="P64">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="65" spans="11:16" x14ac:dyDescent="0.25">
+      <c r="K65" t="s">
+        <v>275</v>
+      </c>
+      <c r="L65">
+        <v>0.5</v>
+      </c>
+      <c r="M65">
+        <v>0.5</v>
+      </c>
+      <c r="N65" t="s">
+        <v>69</v>
+      </c>
+      <c r="O65">
+        <v>37</v>
+      </c>
+      <c r="P65">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="66" spans="11:16" x14ac:dyDescent="0.25">
+      <c r="K66" t="s">
+        <v>275</v>
+      </c>
+      <c r="L66">
+        <v>0.5</v>
+      </c>
+      <c r="M66">
+        <v>0.5</v>
+      </c>
+      <c r="N66" t="s">
+        <v>70</v>
+      </c>
+      <c r="O66">
+        <v>53</v>
+      </c>
+      <c r="P66">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="67" spans="11:16" x14ac:dyDescent="0.25">
+      <c r="K67" t="s">
+        <v>277</v>
+      </c>
+      <c r="L67">
+        <v>0.5</v>
+      </c>
+      <c r="M67">
+        <v>0.5</v>
+      </c>
+      <c r="N67" t="s">
+        <v>66</v>
+      </c>
+      <c r="O67">
+        <v>23</v>
+      </c>
+      <c r="P67">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="68" spans="11:16" x14ac:dyDescent="0.25">
+      <c r="K68" t="s">
+        <v>277</v>
+      </c>
+      <c r="L68">
+        <v>0.5</v>
+      </c>
+      <c r="M68">
+        <v>0.5</v>
+      </c>
+      <c r="N68" t="s">
+        <v>67</v>
+      </c>
+      <c r="O68">
+        <v>29</v>
+      </c>
+      <c r="P68">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="69" spans="11:16" x14ac:dyDescent="0.25">
+      <c r="K69" t="s">
+        <v>277</v>
+      </c>
+      <c r="L69">
+        <v>0.5</v>
+      </c>
+      <c r="M69">
+        <v>0.5</v>
+      </c>
+      <c r="N69" t="s">
+        <v>68</v>
+      </c>
+      <c r="O69">
+        <v>41</v>
+      </c>
+      <c r="P69">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="70" spans="11:16" x14ac:dyDescent="0.25">
+      <c r="K70" t="s">
+        <v>277</v>
+      </c>
+      <c r="L70">
+        <v>0.5</v>
+      </c>
+      <c r="M70">
+        <v>0.5</v>
+      </c>
+      <c r="N70" t="s">
+        <v>69</v>
+      </c>
+      <c r="O70">
+        <v>46</v>
+      </c>
+      <c r="P70">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="71" spans="11:16" x14ac:dyDescent="0.25">
+      <c r="K71" t="s">
+        <v>277</v>
+      </c>
+      <c r="L71">
+        <v>0.5</v>
+      </c>
+      <c r="M71">
+        <v>0.5</v>
+      </c>
+      <c r="N71" t="s">
+        <v>70</v>
+      </c>
+      <c r="O71">
+        <v>61</v>
+      </c>
+      <c r="P71">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="72" spans="11:16" x14ac:dyDescent="0.25">
+      <c r="K72" t="s">
+        <v>284</v>
+      </c>
+      <c r="L72">
+        <v>0.5</v>
+      </c>
+      <c r="M72">
+        <v>0.5</v>
+      </c>
+      <c r="N72" t="s">
+        <v>66</v>
+      </c>
+      <c r="O72">
+        <v>66</v>
+      </c>
+      <c r="P72">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="73" spans="11:16" x14ac:dyDescent="0.25">
+      <c r="K73" t="s">
+        <v>284</v>
+      </c>
+      <c r="L73">
+        <v>0.5</v>
+      </c>
+      <c r="M73">
+        <v>0.5</v>
+      </c>
+      <c r="N73" t="s">
+        <v>67</v>
+      </c>
+      <c r="O73">
+        <v>69</v>
+      </c>
+      <c r="P73">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="74" spans="11:16" x14ac:dyDescent="0.25">
+      <c r="K74" t="s">
+        <v>284</v>
+      </c>
+      <c r="L74">
+        <v>0.5</v>
+      </c>
+      <c r="M74">
+        <v>0.5</v>
+      </c>
+      <c r="N74" t="s">
+        <v>68</v>
+      </c>
+      <c r="O74">
+        <v>72</v>
+      </c>
+      <c r="P74">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="75" spans="11:16" x14ac:dyDescent="0.25">
+      <c r="K75" t="s">
+        <v>284</v>
+      </c>
+      <c r="L75">
+        <v>0.5</v>
+      </c>
+      <c r="M75">
+        <v>0.5</v>
+      </c>
+      <c r="N75" t="s">
+        <v>69</v>
+      </c>
+      <c r="O75">
+        <v>77</v>
+      </c>
+      <c r="P75">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="76" spans="11:16" x14ac:dyDescent="0.25">
+      <c r="K76" t="s">
+        <v>284</v>
+      </c>
+      <c r="L76">
+        <v>0.5</v>
+      </c>
+      <c r="M76">
+        <v>0.5</v>
+      </c>
+      <c r="N76" t="s">
+        <v>70</v>
+      </c>
+      <c r="O76">
+        <v>88</v>
+      </c>
+      <c r="P76">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="77" spans="11:16" x14ac:dyDescent="0.25">
+      <c r="K77" t="s">
+        <v>283</v>
+      </c>
+      <c r="L77">
+        <v>2</v>
+      </c>
+      <c r="M77">
+        <v>1</v>
+      </c>
+      <c r="N77" t="s">
+        <v>66</v>
+      </c>
+      <c r="O77">
+        <v>55</v>
+      </c>
+      <c r="P77">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="78" spans="11:16" x14ac:dyDescent="0.25">
+      <c r="K78" t="s">
+        <v>283</v>
+      </c>
+      <c r="L78">
+        <v>2</v>
+      </c>
+      <c r="M78">
+        <v>1</v>
+      </c>
+      <c r="N78" t="s">
+        <v>67</v>
+      </c>
+      <c r="O78">
+        <v>73</v>
+      </c>
+      <c r="P78">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="79" spans="11:16" x14ac:dyDescent="0.25">
+      <c r="K79" t="s">
+        <v>283</v>
+      </c>
+      <c r="L79">
+        <v>2</v>
+      </c>
+      <c r="M79">
+        <v>1</v>
+      </c>
+      <c r="N79" t="s">
+        <v>68</v>
+      </c>
+      <c r="O79">
+        <v>79</v>
+      </c>
+      <c r="P79">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="80" spans="11:16" x14ac:dyDescent="0.25">
+      <c r="K80" t="s">
+        <v>283</v>
+      </c>
+      <c r="L80">
+        <v>2</v>
+      </c>
+      <c r="M80">
+        <v>1</v>
+      </c>
+      <c r="N80" t="s">
+        <v>69</v>
+      </c>
+      <c r="O80">
+        <v>95</v>
+      </c>
+      <c r="P80">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="81" spans="11:16" x14ac:dyDescent="0.25">
+      <c r="K81" t="s">
+        <v>283</v>
+      </c>
+      <c r="L81">
+        <v>2</v>
+      </c>
+      <c r="M81">
+        <v>1</v>
+      </c>
+      <c r="N81" t="s">
+        <v>70</v>
+      </c>
+      <c r="O81">
+        <v>116</v>
+      </c>
+      <c r="P81">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="82" spans="11:16" x14ac:dyDescent="0.25">
+      <c r="K82" t="s">
+        <v>280</v>
+      </c>
+      <c r="L82">
+        <v>0.5</v>
+      </c>
+      <c r="M82">
+        <v>0.5</v>
+      </c>
+      <c r="N82" t="s">
+        <v>66</v>
+      </c>
+      <c r="O82">
+        <v>23</v>
+      </c>
+      <c r="P82">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="83" spans="11:16" x14ac:dyDescent="0.25">
+      <c r="K83" t="s">
+        <v>280</v>
+      </c>
+      <c r="L83">
+        <v>0.5</v>
+      </c>
+      <c r="M83">
+        <v>0.5</v>
+      </c>
+      <c r="N83" t="s">
+        <v>67</v>
+      </c>
+      <c r="O83">
+        <v>27</v>
+      </c>
+      <c r="P83">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="84" spans="11:16" x14ac:dyDescent="0.25">
+      <c r="K84" t="s">
+        <v>280</v>
+      </c>
+      <c r="L84">
+        <v>0.5</v>
+      </c>
+      <c r="M84">
+        <v>0.5</v>
+      </c>
+      <c r="N84" t="s">
+        <v>68</v>
+      </c>
+      <c r="O84">
+        <v>32</v>
+      </c>
+      <c r="P84">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="85" spans="11:16" x14ac:dyDescent="0.25">
+      <c r="K85" t="s">
+        <v>280</v>
+      </c>
+      <c r="L85">
+        <v>0.5</v>
+      </c>
+      <c r="M85">
+        <v>0.5</v>
+      </c>
+      <c r="N85" t="s">
+        <v>69</v>
+      </c>
+      <c r="O85">
+        <v>37</v>
+      </c>
+      <c r="P85">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="86" spans="11:16" x14ac:dyDescent="0.25">
+      <c r="K86" t="s">
+        <v>280</v>
+      </c>
+      <c r="L86">
+        <v>0.5</v>
+      </c>
+      <c r="M86">
+        <v>0.5</v>
+      </c>
+      <c r="N86" t="s">
+        <v>70</v>
+      </c>
+      <c r="O86">
+        <v>53</v>
+      </c>
+      <c r="P86">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="87" spans="11:16" x14ac:dyDescent="0.25">
+      <c r="K87" t="s">
+        <v>286</v>
+      </c>
+      <c r="L87">
+        <v>10</v>
+      </c>
+      <c r="M87">
+        <v>1</v>
+      </c>
+      <c r="N87" t="s">
+        <v>66</v>
+      </c>
+      <c r="O87">
+        <v>278</v>
+      </c>
+      <c r="P87">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="88" spans="11:16" x14ac:dyDescent="0.25">
+      <c r="K88" t="s">
+        <v>286</v>
+      </c>
+      <c r="L88">
+        <v>10</v>
+      </c>
+      <c r="M88">
+        <v>1</v>
+      </c>
+      <c r="N88" t="s">
+        <v>67</v>
+      </c>
+      <c r="O88">
+        <v>336</v>
+      </c>
+      <c r="P88">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="89" spans="11:16" x14ac:dyDescent="0.25">
+      <c r="K89" t="s">
+        <v>286</v>
+      </c>
+      <c r="L89">
+        <v>10</v>
+      </c>
+      <c r="M89">
+        <v>1</v>
+      </c>
+      <c r="N89" t="s">
+        <v>68</v>
+      </c>
+      <c r="O89">
+        <v>393</v>
+      </c>
+      <c r="P89">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="90" spans="11:16" x14ac:dyDescent="0.25">
+      <c r="K90" t="s">
+        <v>286</v>
+      </c>
+      <c r="L90">
+        <v>10</v>
+      </c>
+      <c r="M90">
+        <v>1</v>
+      </c>
+      <c r="N90" t="s">
+        <v>69</v>
+      </c>
+      <c r="O90">
+        <v>426</v>
+      </c>
+      <c r="P90">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="91" spans="11:16" x14ac:dyDescent="0.25">
+      <c r="K91" t="s">
+        <v>286</v>
+      </c>
+      <c r="L91">
+        <v>10</v>
+      </c>
+      <c r="M91">
+        <v>1</v>
+      </c>
+      <c r="N91" t="s">
+        <v>70</v>
+      </c>
+      <c r="O91">
+        <v>475</v>
+      </c>
+      <c r="P91">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="92" spans="11:16" x14ac:dyDescent="0.25">
+      <c r="K92" t="s">
+        <v>285</v>
+      </c>
+      <c r="L92">
+        <v>5</v>
+      </c>
+      <c r="M92">
+        <v>1</v>
+      </c>
+      <c r="N92" t="s">
+        <v>66</v>
+      </c>
+      <c r="O92">
+        <v>107</v>
+      </c>
+      <c r="P92">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="93" spans="11:16" x14ac:dyDescent="0.25">
+      <c r="K93" t="s">
+        <v>285</v>
+      </c>
+      <c r="L93">
+        <v>5</v>
+      </c>
+      <c r="M93">
+        <v>1</v>
+      </c>
+      <c r="N93" t="s">
+        <v>67</v>
+      </c>
+      <c r="O93">
+        <v>114</v>
+      </c>
+      <c r="P93">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="94" spans="11:16" x14ac:dyDescent="0.25">
+      <c r="K94" t="s">
+        <v>285</v>
+      </c>
+      <c r="L94">
+        <v>5</v>
+      </c>
+      <c r="M94">
+        <v>1</v>
+      </c>
+      <c r="N94" t="s">
+        <v>68</v>
+      </c>
+      <c r="O94">
+        <v>118</v>
+      </c>
+      <c r="P94">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="95" spans="11:16" x14ac:dyDescent="0.25">
+      <c r="K95" t="s">
+        <v>285</v>
+      </c>
+      <c r="L95">
+        <v>5</v>
+      </c>
+      <c r="M95">
+        <v>1</v>
+      </c>
+      <c r="N95" t="s">
+        <v>69</v>
+      </c>
+      <c r="O95">
+        <v>134</v>
+      </c>
+      <c r="P95">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="96" spans="11:16" x14ac:dyDescent="0.25">
+      <c r="K96" t="s">
+        <v>285</v>
+      </c>
+      <c r="L96">
+        <v>5</v>
+      </c>
+      <c r="M96">
+        <v>1</v>
+      </c>
+      <c r="N96" t="s">
+        <v>70</v>
+      </c>
+      <c r="O96">
+        <v>154</v>
+      </c>
+      <c r="P96">
+        <v>29</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="C35:G35"/>
+    <mergeCell ref="C36:G36"/>
+    <mergeCell ref="C37:G37"/>
+    <mergeCell ref="B40:G41"/>
+    <mergeCell ref="B42:G42"/>
     <mergeCell ref="C34:G34"/>
     <mergeCell ref="B2:G3"/>
     <mergeCell ref="B4:G4"/>
@@ -14422,13 +16345,9 @@
     <mergeCell ref="B23:G23"/>
     <mergeCell ref="B24:G24"/>
     <mergeCell ref="B29:G29"/>
-    <mergeCell ref="C35:G35"/>
-    <mergeCell ref="C36:G36"/>
-    <mergeCell ref="C37:G37"/>
-    <mergeCell ref="B40:G41"/>
-    <mergeCell ref="B42:G42"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -14441,163 +16360,163 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B1" s="206"/>
-      <c r="C1" s="206"/>
-      <c r="D1" s="206"/>
-      <c r="E1" s="206"/>
-      <c r="F1" s="206"/>
-      <c r="G1" s="206"/>
-      <c r="H1" s="206"/>
-      <c r="I1" s="206"/>
-      <c r="J1" s="206"/>
-      <c r="K1" s="206"/>
-      <c r="L1" s="206"/>
-      <c r="M1" s="206"/>
+      <c r="B1" s="194"/>
+      <c r="C1" s="194"/>
+      <c r="D1" s="194"/>
+      <c r="E1" s="194"/>
+      <c r="F1" s="194"/>
+      <c r="G1" s="194"/>
+      <c r="H1" s="194"/>
+      <c r="I1" s="194"/>
+      <c r="J1" s="194"/>
+      <c r="K1" s="194"/>
+      <c r="L1" s="194"/>
+      <c r="M1" s="194"/>
     </row>
     <row r="2" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="196" t="s">
+      <c r="B2" s="206" t="s">
         <v>123</v>
       </c>
-      <c r="C2" s="196"/>
-      <c r="D2" s="196"/>
-      <c r="E2" s="196"/>
-      <c r="F2" s="196"/>
-      <c r="G2" s="196"/>
-      <c r="H2" s="196"/>
-      <c r="I2" s="196"/>
-      <c r="J2" s="196"/>
-      <c r="K2" s="196"/>
-      <c r="L2" s="196"/>
+      <c r="C2" s="206"/>
+      <c r="D2" s="206"/>
+      <c r="E2" s="206"/>
+      <c r="F2" s="206"/>
+      <c r="G2" s="206"/>
+      <c r="H2" s="206"/>
+      <c r="I2" s="206"/>
+      <c r="J2" s="206"/>
+      <c r="K2" s="206"/>
+      <c r="L2" s="206"/>
       <c r="M2" s="1"/>
     </row>
     <row r="3" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B3" s="207" t="s">
+      <c r="B3" s="195" t="s">
         <v>124</v>
       </c>
-      <c r="C3" s="208"/>
-      <c r="D3" s="208"/>
-      <c r="E3" s="208"/>
-      <c r="F3" s="208"/>
-      <c r="G3" s="208"/>
-      <c r="H3" s="208"/>
-      <c r="I3" s="208"/>
-      <c r="J3" s="208"/>
-      <c r="K3" s="208"/>
-      <c r="L3" s="209"/>
+      <c r="C3" s="196"/>
+      <c r="D3" s="196"/>
+      <c r="E3" s="196"/>
+      <c r="F3" s="196"/>
+      <c r="G3" s="196"/>
+      <c r="H3" s="196"/>
+      <c r="I3" s="196"/>
+      <c r="J3" s="196"/>
+      <c r="K3" s="196"/>
+      <c r="L3" s="197"/>
       <c r="M3" s="1"/>
     </row>
     <row r="4" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B4" s="202" t="s">
+      <c r="B4" s="198" t="s">
         <v>13</v>
       </c>
-      <c r="C4" s="195"/>
-      <c r="D4" s="194" t="s">
+      <c r="C4" s="199"/>
+      <c r="D4" s="200" t="s">
         <v>14</v>
       </c>
-      <c r="E4" s="195"/>
-      <c r="F4" s="194" t="s">
+      <c r="E4" s="199"/>
+      <c r="F4" s="200" t="s">
         <v>15</v>
       </c>
-      <c r="G4" s="195"/>
-      <c r="H4" s="194" t="s">
+      <c r="G4" s="199"/>
+      <c r="H4" s="200" t="s">
         <v>16</v>
       </c>
-      <c r="I4" s="195"/>
-      <c r="J4" s="194" t="s">
+      <c r="I4" s="199"/>
+      <c r="J4" s="200" t="s">
         <v>17</v>
       </c>
-      <c r="K4" s="195"/>
+      <c r="K4" s="199"/>
       <c r="L4" s="5" t="s">
         <v>18</v>
       </c>
       <c r="M4" s="1"/>
     </row>
     <row r="5" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B5" s="202" t="s">
+      <c r="B5" s="198" t="s">
         <v>125</v>
       </c>
-      <c r="C5" s="195"/>
-      <c r="D5" s="200">
+      <c r="C5" s="199"/>
+      <c r="D5" s="201">
         <v>23</v>
       </c>
-      <c r="E5" s="201"/>
-      <c r="F5" s="200">
+      <c r="E5" s="202"/>
+      <c r="F5" s="201">
         <v>27</v>
       </c>
-      <c r="G5" s="201"/>
-      <c r="H5" s="200">
+      <c r="G5" s="202"/>
+      <c r="H5" s="201">
         <v>32</v>
       </c>
-      <c r="I5" s="201"/>
-      <c r="J5" s="200">
+      <c r="I5" s="202"/>
+      <c r="J5" s="201">
         <v>37</v>
       </c>
-      <c r="K5" s="201"/>
+      <c r="K5" s="202"/>
       <c r="L5" s="6">
         <v>53</v>
       </c>
       <c r="M5" s="1"/>
     </row>
     <row r="6" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B6" s="202" t="s">
+      <c r="B6" s="198" t="s">
         <v>126</v>
       </c>
-      <c r="C6" s="195"/>
-      <c r="D6" s="200">
+      <c r="C6" s="199"/>
+      <c r="D6" s="201">
         <v>22</v>
       </c>
-      <c r="E6" s="201"/>
-      <c r="F6" s="200">
+      <c r="E6" s="202"/>
+      <c r="F6" s="201">
         <v>27</v>
       </c>
-      <c r="G6" s="201"/>
-      <c r="H6" s="200">
+      <c r="G6" s="202"/>
+      <c r="H6" s="201">
         <v>31</v>
       </c>
-      <c r="I6" s="201"/>
-      <c r="J6" s="200">
+      <c r="I6" s="202"/>
+      <c r="J6" s="201">
         <v>36</v>
       </c>
-      <c r="K6" s="201"/>
+      <c r="K6" s="202"/>
       <c r="L6" s="6">
         <v>53</v>
       </c>
       <c r="M6" s="1"/>
     </row>
     <row r="7" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B7" s="202" t="s">
+      <c r="B7" s="198" t="s">
         <v>37</v>
       </c>
-      <c r="C7" s="195"/>
-      <c r="D7" s="194" t="s">
+      <c r="C7" s="199"/>
+      <c r="D7" s="200" t="s">
         <v>127</v>
       </c>
-      <c r="E7" s="194"/>
-      <c r="F7" s="194"/>
-      <c r="G7" s="194"/>
-      <c r="H7" s="194"/>
-      <c r="I7" s="194"/>
-      <c r="J7" s="194"/>
-      <c r="K7" s="194"/>
-      <c r="L7" s="195"/>
+      <c r="E7" s="200"/>
+      <c r="F7" s="200"/>
+      <c r="G7" s="200"/>
+      <c r="H7" s="200"/>
+      <c r="I7" s="200"/>
+      <c r="J7" s="200"/>
+      <c r="K7" s="200"/>
+      <c r="L7" s="199"/>
       <c r="M7" s="1"/>
     </row>
     <row r="8" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B8" s="202" t="s">
+      <c r="B8" s="198" t="s">
         <v>39</v>
       </c>
-      <c r="C8" s="195"/>
-      <c r="D8" s="194" t="s">
+      <c r="C8" s="199"/>
+      <c r="D8" s="200" t="s">
         <v>128</v>
       </c>
-      <c r="E8" s="194"/>
-      <c r="F8" s="194"/>
-      <c r="G8" s="194"/>
-      <c r="H8" s="194"/>
-      <c r="I8" s="194"/>
-      <c r="J8" s="194"/>
-      <c r="K8" s="194"/>
-      <c r="L8" s="195"/>
+      <c r="E8" s="200"/>
+      <c r="F8" s="200"/>
+      <c r="G8" s="200"/>
+      <c r="H8" s="200"/>
+      <c r="I8" s="200"/>
+      <c r="J8" s="200"/>
+      <c r="K8" s="200"/>
+      <c r="L8" s="199"/>
       <c r="M8" s="1"/>
     </row>
     <row r="9" spans="2:13" x14ac:dyDescent="0.25">
@@ -14615,523 +16534,523 @@
       <c r="M9" s="1"/>
     </row>
     <row r="10" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B10" s="202" t="s">
+      <c r="B10" s="198" t="s">
         <v>129</v>
       </c>
-      <c r="C10" s="194"/>
-      <c r="D10" s="194"/>
-      <c r="E10" s="194"/>
-      <c r="F10" s="194"/>
-      <c r="G10" s="194"/>
-      <c r="H10" s="194"/>
-      <c r="I10" s="194"/>
-      <c r="J10" s="194"/>
-      <c r="K10" s="194"/>
-      <c r="L10" s="195"/>
+      <c r="C10" s="200"/>
+      <c r="D10" s="200"/>
+      <c r="E10" s="200"/>
+      <c r="F10" s="200"/>
+      <c r="G10" s="200"/>
+      <c r="H10" s="200"/>
+      <c r="I10" s="200"/>
+      <c r="J10" s="200"/>
+      <c r="K10" s="200"/>
+      <c r="L10" s="199"/>
       <c r="M10" s="1"/>
     </row>
     <row r="11" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B11" s="202" t="s">
+      <c r="B11" s="198" t="s">
         <v>13</v>
       </c>
-      <c r="C11" s="195"/>
-      <c r="D11" s="194" t="s">
+      <c r="C11" s="199"/>
+      <c r="D11" s="200" t="s">
         <v>14</v>
       </c>
-      <c r="E11" s="195"/>
-      <c r="F11" s="194" t="s">
+      <c r="E11" s="199"/>
+      <c r="F11" s="200" t="s">
         <v>15</v>
       </c>
-      <c r="G11" s="195"/>
-      <c r="H11" s="194" t="s">
+      <c r="G11" s="199"/>
+      <c r="H11" s="200" t="s">
         <v>16</v>
       </c>
-      <c r="I11" s="195"/>
-      <c r="J11" s="194" t="s">
+      <c r="I11" s="199"/>
+      <c r="J11" s="200" t="s">
         <v>17</v>
       </c>
-      <c r="K11" s="195"/>
+      <c r="K11" s="199"/>
       <c r="L11" s="5" t="s">
         <v>18</v>
       </c>
       <c r="M11" s="1"/>
     </row>
     <row r="12" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B12" s="202" t="s">
+      <c r="B12" s="198" t="s">
         <v>125</v>
       </c>
-      <c r="C12" s="195"/>
-      <c r="D12" s="200">
+      <c r="C12" s="199"/>
+      <c r="D12" s="201">
         <v>23</v>
       </c>
-      <c r="E12" s="201"/>
-      <c r="F12" s="200">
+      <c r="E12" s="202"/>
+      <c r="F12" s="201">
         <v>29</v>
       </c>
-      <c r="G12" s="201"/>
-      <c r="H12" s="200">
+      <c r="G12" s="202"/>
+      <c r="H12" s="201">
         <v>41</v>
       </c>
-      <c r="I12" s="201"/>
-      <c r="J12" s="200">
+      <c r="I12" s="202"/>
+      <c r="J12" s="201">
         <v>46</v>
       </c>
-      <c r="K12" s="201"/>
+      <c r="K12" s="202"/>
       <c r="L12" s="6">
         <v>61</v>
       </c>
       <c r="M12" s="1"/>
     </row>
     <row r="13" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B13" s="202" t="s">
+      <c r="B13" s="198" t="s">
         <v>126</v>
       </c>
-      <c r="C13" s="195"/>
-      <c r="D13" s="200">
+      <c r="C13" s="199"/>
+      <c r="D13" s="201">
         <v>23</v>
       </c>
-      <c r="E13" s="201"/>
-      <c r="F13" s="200">
+      <c r="E13" s="202"/>
+      <c r="F13" s="201">
         <v>28</v>
       </c>
-      <c r="G13" s="201"/>
-      <c r="H13" s="200">
+      <c r="G13" s="202"/>
+      <c r="H13" s="201">
         <v>40</v>
       </c>
-      <c r="I13" s="201"/>
-      <c r="J13" s="200">
+      <c r="I13" s="202"/>
+      <c r="J13" s="201">
         <v>46</v>
       </c>
-      <c r="K13" s="201"/>
+      <c r="K13" s="202"/>
       <c r="L13" s="6">
         <v>61</v>
       </c>
       <c r="M13" s="1"/>
     </row>
     <row r="14" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B14" s="202" t="s">
+      <c r="B14" s="198" t="s">
         <v>37</v>
       </c>
-      <c r="C14" s="195"/>
-      <c r="D14" s="194" t="s">
+      <c r="C14" s="199"/>
+      <c r="D14" s="200" t="s">
         <v>127</v>
       </c>
-      <c r="E14" s="194"/>
-      <c r="F14" s="194"/>
-      <c r="G14" s="194"/>
-      <c r="H14" s="194"/>
-      <c r="I14" s="194"/>
-      <c r="J14" s="194"/>
-      <c r="K14" s="194"/>
-      <c r="L14" s="195"/>
+      <c r="E14" s="200"/>
+      <c r="F14" s="200"/>
+      <c r="G14" s="200"/>
+      <c r="H14" s="200"/>
+      <c r="I14" s="200"/>
+      <c r="J14" s="200"/>
+      <c r="K14" s="200"/>
+      <c r="L14" s="199"/>
       <c r="M14" s="1"/>
     </row>
     <row r="15" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B15" s="202" t="s">
+      <c r="B15" s="198" t="s">
         <v>39</v>
       </c>
-      <c r="C15" s="195"/>
-      <c r="D15" s="194" t="s">
+      <c r="C15" s="199"/>
+      <c r="D15" s="200" t="s">
         <v>128</v>
       </c>
-      <c r="E15" s="194"/>
-      <c r="F15" s="194"/>
-      <c r="G15" s="194"/>
-      <c r="H15" s="194"/>
-      <c r="I15" s="194"/>
-      <c r="J15" s="194"/>
-      <c r="K15" s="194"/>
-      <c r="L15" s="195"/>
+      <c r="E15" s="200"/>
+      <c r="F15" s="200"/>
+      <c r="G15" s="200"/>
+      <c r="H15" s="200"/>
+      <c r="I15" s="200"/>
+      <c r="J15" s="200"/>
+      <c r="K15" s="200"/>
+      <c r="L15" s="199"/>
       <c r="M15" s="1"/>
     </row>
     <row r="16" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B16" s="202" t="s">
+      <c r="B16" s="198" t="s">
         <v>130</v>
       </c>
-      <c r="C16" s="194"/>
-      <c r="D16" s="194"/>
-      <c r="E16" s="194"/>
-      <c r="F16" s="194"/>
-      <c r="G16" s="194"/>
-      <c r="H16" s="194"/>
-      <c r="I16" s="194"/>
-      <c r="J16" s="194"/>
-      <c r="K16" s="194"/>
-      <c r="L16" s="195"/>
+      <c r="C16" s="200"/>
+      <c r="D16" s="200"/>
+      <c r="E16" s="200"/>
+      <c r="F16" s="200"/>
+      <c r="G16" s="200"/>
+      <c r="H16" s="200"/>
+      <c r="I16" s="200"/>
+      <c r="J16" s="200"/>
+      <c r="K16" s="200"/>
+      <c r="L16" s="199"/>
       <c r="M16" s="1"/>
     </row>
     <row r="17" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B17" s="202" t="s">
+      <c r="B17" s="198" t="s">
         <v>13</v>
       </c>
-      <c r="C17" s="195"/>
-      <c r="D17" s="194" t="s">
+      <c r="C17" s="199"/>
+      <c r="D17" s="200" t="s">
         <v>14</v>
       </c>
-      <c r="E17" s="195"/>
-      <c r="F17" s="194" t="s">
+      <c r="E17" s="199"/>
+      <c r="F17" s="200" t="s">
         <v>15</v>
       </c>
-      <c r="G17" s="195"/>
-      <c r="H17" s="194" t="s">
+      <c r="G17" s="199"/>
+      <c r="H17" s="200" t="s">
         <v>16</v>
       </c>
-      <c r="I17" s="195"/>
-      <c r="J17" s="194" t="s">
+      <c r="I17" s="199"/>
+      <c r="J17" s="200" t="s">
         <v>17</v>
       </c>
-      <c r="K17" s="195"/>
+      <c r="K17" s="199"/>
       <c r="L17" s="5" t="s">
         <v>18</v>
       </c>
       <c r="M17" s="1"/>
     </row>
     <row r="18" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B18" s="202" t="s">
+      <c r="B18" s="198" t="s">
         <v>131</v>
       </c>
-      <c r="C18" s="195"/>
-      <c r="D18" s="200">
+      <c r="C18" s="199"/>
+      <c r="D18" s="201">
         <v>55</v>
       </c>
-      <c r="E18" s="201"/>
-      <c r="F18" s="200">
+      <c r="E18" s="202"/>
+      <c r="F18" s="201">
         <v>73</v>
       </c>
-      <c r="G18" s="201"/>
-      <c r="H18" s="200">
+      <c r="G18" s="202"/>
+      <c r="H18" s="201">
         <v>79</v>
       </c>
-      <c r="I18" s="201"/>
-      <c r="J18" s="200">
+      <c r="I18" s="202"/>
+      <c r="J18" s="201">
         <v>95</v>
       </c>
-      <c r="K18" s="201"/>
+      <c r="K18" s="202"/>
       <c r="L18" s="6">
         <v>116</v>
       </c>
       <c r="M18" s="1"/>
     </row>
     <row r="19" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B19" s="202" t="s">
+      <c r="B19" s="198" t="s">
         <v>132</v>
       </c>
-      <c r="C19" s="195"/>
-      <c r="D19" s="200">
+      <c r="C19" s="199"/>
+      <c r="D19" s="201">
         <v>14</v>
       </c>
-      <c r="E19" s="201"/>
-      <c r="F19" s="200">
+      <c r="E19" s="202"/>
+      <c r="F19" s="201">
         <v>16</v>
       </c>
-      <c r="G19" s="201"/>
-      <c r="H19" s="200">
+      <c r="G19" s="202"/>
+      <c r="H19" s="201">
         <v>22</v>
       </c>
-      <c r="I19" s="201"/>
-      <c r="J19" s="200">
+      <c r="I19" s="202"/>
+      <c r="J19" s="201">
         <v>24</v>
       </c>
-      <c r="K19" s="201"/>
+      <c r="K19" s="202"/>
       <c r="L19" s="6">
         <v>29</v>
       </c>
       <c r="M19" s="1"/>
     </row>
     <row r="20" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B20" s="202" t="s">
+      <c r="B20" s="198" t="s">
         <v>37</v>
       </c>
-      <c r="C20" s="195"/>
-      <c r="D20" s="194" t="s">
+      <c r="C20" s="199"/>
+      <c r="D20" s="200" t="s">
         <v>127</v>
       </c>
-      <c r="E20" s="194"/>
-      <c r="F20" s="194"/>
-      <c r="G20" s="194"/>
-      <c r="H20" s="194"/>
-      <c r="I20" s="194"/>
-      <c r="J20" s="194"/>
-      <c r="K20" s="194"/>
-      <c r="L20" s="195"/>
+      <c r="E20" s="200"/>
+      <c r="F20" s="200"/>
+      <c r="G20" s="200"/>
+      <c r="H20" s="200"/>
+      <c r="I20" s="200"/>
+      <c r="J20" s="200"/>
+      <c r="K20" s="200"/>
+      <c r="L20" s="199"/>
       <c r="M20" s="1"/>
     </row>
     <row r="21" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B21" s="202" t="s">
+      <c r="B21" s="198" t="s">
         <v>39</v>
       </c>
-      <c r="C21" s="195"/>
-      <c r="D21" s="194" t="s">
+      <c r="C21" s="199"/>
+      <c r="D21" s="200" t="s">
         <v>128</v>
       </c>
-      <c r="E21" s="194"/>
-      <c r="F21" s="194"/>
-      <c r="G21" s="194"/>
-      <c r="H21" s="194"/>
-      <c r="I21" s="194"/>
-      <c r="J21" s="194"/>
-      <c r="K21" s="194"/>
-      <c r="L21" s="195"/>
+      <c r="E21" s="200"/>
+      <c r="F21" s="200"/>
+      <c r="G21" s="200"/>
+      <c r="H21" s="200"/>
+      <c r="I21" s="200"/>
+      <c r="J21" s="200"/>
+      <c r="K21" s="200"/>
+      <c r="L21" s="199"/>
       <c r="M21" s="1"/>
     </row>
     <row r="22" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B22" s="202" t="s">
+      <c r="B22" s="198" t="s">
         <v>133</v>
       </c>
-      <c r="C22" s="194"/>
-      <c r="D22" s="194"/>
-      <c r="E22" s="194"/>
-      <c r="F22" s="194"/>
-      <c r="G22" s="194"/>
-      <c r="H22" s="194"/>
-      <c r="I22" s="194"/>
-      <c r="J22" s="194"/>
-      <c r="K22" s="194"/>
-      <c r="L22" s="195"/>
+      <c r="C22" s="200"/>
+      <c r="D22" s="200"/>
+      <c r="E22" s="200"/>
+      <c r="F22" s="200"/>
+      <c r="G22" s="200"/>
+      <c r="H22" s="200"/>
+      <c r="I22" s="200"/>
+      <c r="J22" s="200"/>
+      <c r="K22" s="200"/>
+      <c r="L22" s="199"/>
       <c r="M22" s="1"/>
     </row>
     <row r="23" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B23" s="202" t="s">
+      <c r="B23" s="198" t="s">
         <v>13</v>
       </c>
-      <c r="C23" s="195"/>
-      <c r="D23" s="194" t="s">
+      <c r="C23" s="199"/>
+      <c r="D23" s="200" t="s">
         <v>14</v>
       </c>
-      <c r="E23" s="195"/>
-      <c r="F23" s="194" t="s">
+      <c r="E23" s="199"/>
+      <c r="F23" s="200" t="s">
         <v>15</v>
       </c>
-      <c r="G23" s="195"/>
-      <c r="H23" s="194" t="s">
+      <c r="G23" s="199"/>
+      <c r="H23" s="200" t="s">
         <v>16</v>
       </c>
-      <c r="I23" s="195"/>
-      <c r="J23" s="194" t="s">
+      <c r="I23" s="199"/>
+      <c r="J23" s="200" t="s">
         <v>17</v>
       </c>
-      <c r="K23" s="195"/>
+      <c r="K23" s="199"/>
       <c r="L23" s="5" t="s">
         <v>18</v>
       </c>
       <c r="M23" s="1"/>
     </row>
     <row r="24" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B24" s="202" t="s">
+      <c r="B24" s="198" t="s">
         <v>134</v>
       </c>
-      <c r="C24" s="195"/>
-      <c r="D24" s="200">
+      <c r="C24" s="199"/>
+      <c r="D24" s="201">
         <v>107</v>
       </c>
-      <c r="E24" s="201"/>
-      <c r="F24" s="200">
+      <c r="E24" s="202"/>
+      <c r="F24" s="201">
         <v>114</v>
       </c>
-      <c r="G24" s="201"/>
-      <c r="H24" s="200">
+      <c r="G24" s="202"/>
+      <c r="H24" s="201">
         <v>118</v>
       </c>
-      <c r="I24" s="201"/>
-      <c r="J24" s="200">
+      <c r="I24" s="202"/>
+      <c r="J24" s="201">
         <v>134</v>
       </c>
-      <c r="K24" s="201"/>
+      <c r="K24" s="202"/>
       <c r="L24" s="6">
         <v>154</v>
       </c>
       <c r="M24" s="1"/>
     </row>
     <row r="25" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B25" s="202" t="s">
+      <c r="B25" s="198" t="s">
         <v>132</v>
       </c>
-      <c r="C25" s="195"/>
-      <c r="D25" s="200">
+      <c r="C25" s="199"/>
+      <c r="D25" s="201">
         <v>14</v>
       </c>
-      <c r="E25" s="201"/>
-      <c r="F25" s="200">
+      <c r="E25" s="202"/>
+      <c r="F25" s="201">
         <v>16</v>
       </c>
-      <c r="G25" s="201"/>
-      <c r="H25" s="200">
+      <c r="G25" s="202"/>
+      <c r="H25" s="201">
         <v>22</v>
       </c>
-      <c r="I25" s="201"/>
-      <c r="J25" s="200">
+      <c r="I25" s="202"/>
+      <c r="J25" s="201">
         <v>24</v>
       </c>
-      <c r="K25" s="201"/>
+      <c r="K25" s="202"/>
       <c r="L25" s="6">
         <v>29</v>
       </c>
       <c r="M25" s="1"/>
     </row>
     <row r="26" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B26" s="202" t="s">
+      <c r="B26" s="198" t="s">
         <v>37</v>
       </c>
-      <c r="C26" s="195"/>
-      <c r="D26" s="194" t="s">
+      <c r="C26" s="199"/>
+      <c r="D26" s="200" t="s">
         <v>127</v>
       </c>
-      <c r="E26" s="194"/>
-      <c r="F26" s="194"/>
-      <c r="G26" s="194"/>
-      <c r="H26" s="194"/>
-      <c r="I26" s="194"/>
-      <c r="J26" s="194"/>
-      <c r="K26" s="194"/>
-      <c r="L26" s="195"/>
+      <c r="E26" s="200"/>
+      <c r="F26" s="200"/>
+      <c r="G26" s="200"/>
+      <c r="H26" s="200"/>
+      <c r="I26" s="200"/>
+      <c r="J26" s="200"/>
+      <c r="K26" s="200"/>
+      <c r="L26" s="199"/>
       <c r="M26" s="1"/>
     </row>
     <row r="27" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B27" s="202" t="s">
+      <c r="B27" s="198" t="s">
         <v>39</v>
       </c>
-      <c r="C27" s="195"/>
-      <c r="D27" s="194" t="s">
+      <c r="C27" s="199"/>
+      <c r="D27" s="200" t="s">
         <v>128</v>
       </c>
-      <c r="E27" s="194"/>
-      <c r="F27" s="194"/>
-      <c r="G27" s="194"/>
-      <c r="H27" s="194"/>
-      <c r="I27" s="194"/>
-      <c r="J27" s="194"/>
-      <c r="K27" s="194"/>
-      <c r="L27" s="195"/>
+      <c r="E27" s="200"/>
+      <c r="F27" s="200"/>
+      <c r="G27" s="200"/>
+      <c r="H27" s="200"/>
+      <c r="I27" s="200"/>
+      <c r="J27" s="200"/>
+      <c r="K27" s="200"/>
+      <c r="L27" s="199"/>
       <c r="M27" s="1"/>
     </row>
     <row r="28" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B28" s="202" t="s">
+      <c r="B28" s="198" t="s">
         <v>135</v>
       </c>
-      <c r="C28" s="194"/>
-      <c r="D28" s="194"/>
-      <c r="E28" s="194"/>
-      <c r="F28" s="194"/>
-      <c r="G28" s="194"/>
-      <c r="H28" s="194"/>
-      <c r="I28" s="194"/>
-      <c r="J28" s="194"/>
-      <c r="K28" s="194"/>
-      <c r="L28" s="195"/>
+      <c r="C28" s="200"/>
+      <c r="D28" s="200"/>
+      <c r="E28" s="200"/>
+      <c r="F28" s="200"/>
+      <c r="G28" s="200"/>
+      <c r="H28" s="200"/>
+      <c r="I28" s="200"/>
+      <c r="J28" s="200"/>
+      <c r="K28" s="200"/>
+      <c r="L28" s="199"/>
       <c r="M28" s="1"/>
     </row>
     <row r="29" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B29" s="202" t="s">
+      <c r="B29" s="198" t="s">
         <v>13</v>
       </c>
-      <c r="C29" s="195"/>
-      <c r="D29" s="194" t="s">
+      <c r="C29" s="199"/>
+      <c r="D29" s="200" t="s">
         <v>14</v>
       </c>
-      <c r="E29" s="195"/>
-      <c r="F29" s="194" t="s">
+      <c r="E29" s="199"/>
+      <c r="F29" s="200" t="s">
         <v>15</v>
       </c>
-      <c r="G29" s="195"/>
-      <c r="H29" s="194" t="s">
+      <c r="G29" s="199"/>
+      <c r="H29" s="200" t="s">
         <v>16</v>
       </c>
-      <c r="I29" s="195"/>
-      <c r="J29" s="194" t="s">
+      <c r="I29" s="199"/>
+      <c r="J29" s="200" t="s">
         <v>17</v>
       </c>
-      <c r="K29" s="195"/>
+      <c r="K29" s="199"/>
       <c r="L29" s="5" t="s">
         <v>18</v>
       </c>
       <c r="M29" s="1"/>
     </row>
     <row r="30" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B30" s="202" t="s">
+      <c r="B30" s="198" t="s">
         <v>136</v>
       </c>
-      <c r="C30" s="195"/>
-      <c r="D30" s="200">
+      <c r="C30" s="199"/>
+      <c r="D30" s="201">
         <v>290</v>
       </c>
-      <c r="E30" s="201"/>
-      <c r="F30" s="200">
+      <c r="E30" s="202"/>
+      <c r="F30" s="201">
         <v>299</v>
       </c>
-      <c r="G30" s="201"/>
-      <c r="H30" s="200">
+      <c r="G30" s="202"/>
+      <c r="H30" s="201">
         <v>299</v>
       </c>
-      <c r="I30" s="201"/>
-      <c r="J30" s="200">
+      <c r="I30" s="202"/>
+      <c r="J30" s="201">
         <v>308</v>
       </c>
-      <c r="K30" s="201"/>
+      <c r="K30" s="202"/>
       <c r="L30" s="6">
         <v>316</v>
       </c>
       <c r="M30" s="1"/>
     </row>
     <row r="31" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B31" s="202" t="s">
+      <c r="B31" s="198" t="s">
         <v>132</v>
       </c>
-      <c r="C31" s="195"/>
-      <c r="D31" s="200">
+      <c r="C31" s="199"/>
+      <c r="D31" s="201">
         <v>15</v>
       </c>
-      <c r="E31" s="201"/>
-      <c r="F31" s="200">
+      <c r="E31" s="202"/>
+      <c r="F31" s="201">
         <v>15</v>
       </c>
-      <c r="G31" s="201"/>
-      <c r="H31" s="200">
+      <c r="G31" s="202"/>
+      <c r="H31" s="201">
         <v>15</v>
       </c>
-      <c r="I31" s="201"/>
-      <c r="J31" s="200">
+      <c r="I31" s="202"/>
+      <c r="J31" s="201">
         <v>15</v>
       </c>
-      <c r="K31" s="201"/>
+      <c r="K31" s="202"/>
       <c r="L31" s="6">
         <v>15</v>
       </c>
       <c r="M31" s="1"/>
     </row>
     <row r="32" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B32" s="202" t="s">
+      <c r="B32" s="198" t="s">
         <v>37</v>
       </c>
-      <c r="C32" s="195"/>
-      <c r="D32" s="194" t="s">
+      <c r="C32" s="199"/>
+      <c r="D32" s="200" t="s">
         <v>127</v>
       </c>
-      <c r="E32" s="194"/>
-      <c r="F32" s="194"/>
-      <c r="G32" s="194"/>
-      <c r="H32" s="194"/>
-      <c r="I32" s="194"/>
-      <c r="J32" s="194"/>
-      <c r="K32" s="194"/>
-      <c r="L32" s="195"/>
+      <c r="E32" s="200"/>
+      <c r="F32" s="200"/>
+      <c r="G32" s="200"/>
+      <c r="H32" s="200"/>
+      <c r="I32" s="200"/>
+      <c r="J32" s="200"/>
+      <c r="K32" s="200"/>
+      <c r="L32" s="199"/>
       <c r="M32" s="1"/>
     </row>
     <row r="33" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B33" s="202" t="s">
+      <c r="B33" s="198" t="s">
         <v>39</v>
       </c>
-      <c r="C33" s="195"/>
-      <c r="D33" s="194" t="s">
+      <c r="C33" s="199"/>
+      <c r="D33" s="200" t="s">
         <v>128</v>
       </c>
-      <c r="E33" s="194"/>
-      <c r="F33" s="194"/>
-      <c r="G33" s="194"/>
-      <c r="H33" s="194"/>
-      <c r="I33" s="194"/>
-      <c r="J33" s="194"/>
-      <c r="K33" s="194"/>
-      <c r="L33" s="195"/>
+      <c r="E33" s="200"/>
+      <c r="F33" s="200"/>
+      <c r="G33" s="200"/>
+      <c r="H33" s="200"/>
+      <c r="I33" s="200"/>
+      <c r="J33" s="200"/>
+      <c r="K33" s="200"/>
+      <c r="L33" s="199"/>
       <c r="M33" s="1"/>
     </row>
     <row r="34" spans="2:13" x14ac:dyDescent="0.25">
@@ -15154,24 +17073,24 @@
       <c r="B35" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="C35" s="194" t="s">
+      <c r="C35" s="200" t="s">
         <v>14</v>
       </c>
-      <c r="D35" s="195"/>
+      <c r="D35" s="199"/>
       <c r="E35" s="5" t="s">
         <v>15</v>
       </c>
       <c r="F35" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="G35" s="194" t="s">
+      <c r="G35" s="200" t="s">
         <v>17</v>
       </c>
-      <c r="H35" s="195"/>
-      <c r="I35" s="194" t="s">
+      <c r="H35" s="199"/>
+      <c r="I35" s="200" t="s">
         <v>18</v>
       </c>
-      <c r="J35" s="195"/>
+      <c r="J35" s="199"/>
       <c r="K35" s="1"/>
       <c r="L35" s="1"/>
       <c r="M35" s="1"/>
@@ -15180,24 +17099,24 @@
       <c r="B36" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="C36" s="200">
+      <c r="C36" s="201">
         <v>66</v>
       </c>
-      <c r="D36" s="201"/>
+      <c r="D36" s="202"/>
       <c r="E36" s="6">
         <v>69</v>
       </c>
       <c r="F36" s="6">
         <v>72</v>
       </c>
-      <c r="G36" s="200">
+      <c r="G36" s="201">
         <v>77</v>
       </c>
-      <c r="H36" s="201"/>
-      <c r="I36" s="200">
+      <c r="H36" s="202"/>
+      <c r="I36" s="201">
         <v>88</v>
       </c>
-      <c r="J36" s="201"/>
+      <c r="J36" s="202"/>
       <c r="K36" s="1"/>
       <c r="L36" s="1"/>
       <c r="M36" s="1"/>
@@ -15206,40 +17125,40 @@
       <c r="B37" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="C37" s="200">
+      <c r="C37" s="201">
         <v>33</v>
       </c>
-      <c r="D37" s="201"/>
+      <c r="D37" s="202"/>
       <c r="E37" s="6">
         <v>34</v>
       </c>
       <c r="F37" s="6">
         <v>38</v>
       </c>
-      <c r="G37" s="200">
+      <c r="G37" s="201">
         <v>43</v>
       </c>
-      <c r="H37" s="201"/>
-      <c r="I37" s="200">
+      <c r="H37" s="202"/>
+      <c r="I37" s="201">
         <v>49</v>
       </c>
-      <c r="J37" s="201"/>
+      <c r="J37" s="202"/>
       <c r="K37" s="1"/>
       <c r="L37" s="1"/>
       <c r="M37" s="1"/>
     </row>
     <row r="38" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B38" s="197" t="s">
+      <c r="B38" s="207" t="s">
         <v>138</v>
       </c>
-      <c r="C38" s="198"/>
-      <c r="D38" s="198"/>
-      <c r="E38" s="198"/>
-      <c r="F38" s="198"/>
-      <c r="G38" s="198"/>
-      <c r="H38" s="198"/>
-      <c r="I38" s="198"/>
-      <c r="J38" s="199"/>
+      <c r="C38" s="208"/>
+      <c r="D38" s="208"/>
+      <c r="E38" s="208"/>
+      <c r="F38" s="208"/>
+      <c r="G38" s="208"/>
+      <c r="H38" s="208"/>
+      <c r="I38" s="208"/>
+      <c r="J38" s="209"/>
       <c r="K38" s="1"/>
       <c r="L38" s="1"/>
       <c r="M38" s="1"/>
@@ -15248,24 +17167,24 @@
       <c r="B39" s="7" t="s">
         <v>139</v>
       </c>
-      <c r="C39" s="200">
+      <c r="C39" s="201">
         <v>98</v>
       </c>
-      <c r="D39" s="201"/>
+      <c r="D39" s="202"/>
       <c r="E39" s="6">
         <v>103</v>
       </c>
       <c r="F39" s="6">
         <v>110</v>
       </c>
-      <c r="G39" s="200">
+      <c r="G39" s="201">
         <v>120</v>
       </c>
-      <c r="H39" s="201"/>
-      <c r="I39" s="200">
+      <c r="H39" s="202"/>
+      <c r="I39" s="201">
         <v>138</v>
       </c>
-      <c r="J39" s="201"/>
+      <c r="J39" s="202"/>
       <c r="K39" s="1"/>
       <c r="L39" s="1"/>
       <c r="M39" s="1"/>
@@ -15274,40 +17193,40 @@
       <c r="B40" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="C40" s="200">
+      <c r="C40" s="201">
         <v>43</v>
       </c>
-      <c r="D40" s="201"/>
+      <c r="D40" s="202"/>
       <c r="E40" s="6">
         <v>45</v>
       </c>
       <c r="F40" s="6">
         <v>48</v>
       </c>
-      <c r="G40" s="200">
+      <c r="G40" s="201">
         <v>54</v>
       </c>
-      <c r="H40" s="201"/>
-      <c r="I40" s="200">
+      <c r="H40" s="202"/>
+      <c r="I40" s="201">
         <v>45</v>
       </c>
-      <c r="J40" s="201"/>
+      <c r="J40" s="202"/>
       <c r="K40" s="1"/>
       <c r="L40" s="1"/>
       <c r="M40" s="1"/>
     </row>
     <row r="41" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B41" s="197" t="s">
+      <c r="B41" s="207" t="s">
         <v>138</v>
       </c>
-      <c r="C41" s="198"/>
-      <c r="D41" s="198"/>
-      <c r="E41" s="198"/>
-      <c r="F41" s="198"/>
-      <c r="G41" s="198"/>
-      <c r="H41" s="198"/>
-      <c r="I41" s="198"/>
-      <c r="J41" s="199"/>
+      <c r="C41" s="208"/>
+      <c r="D41" s="208"/>
+      <c r="E41" s="208"/>
+      <c r="F41" s="208"/>
+      <c r="G41" s="208"/>
+      <c r="H41" s="208"/>
+      <c r="I41" s="208"/>
+      <c r="J41" s="209"/>
       <c r="K41" s="1"/>
       <c r="L41" s="1"/>
       <c r="M41" s="1"/>
@@ -15316,24 +17235,24 @@
       <c r="B42" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="C42" s="200">
+      <c r="C42" s="201">
         <v>147</v>
       </c>
-      <c r="D42" s="201"/>
+      <c r="D42" s="202"/>
       <c r="E42" s="6">
         <v>177</v>
       </c>
       <c r="F42" s="6">
         <v>213</v>
       </c>
-      <c r="G42" s="200">
+      <c r="G42" s="201">
         <v>229</v>
       </c>
-      <c r="H42" s="201"/>
-      <c r="I42" s="200">
+      <c r="H42" s="202"/>
+      <c r="I42" s="201">
         <v>251</v>
       </c>
-      <c r="J42" s="201"/>
+      <c r="J42" s="202"/>
       <c r="K42" s="1"/>
       <c r="L42" s="1"/>
       <c r="M42" s="1"/>
@@ -15342,40 +17261,40 @@
       <c r="B43" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="C43" s="200">
+      <c r="C43" s="201">
         <v>25</v>
       </c>
-      <c r="D43" s="201"/>
+      <c r="D43" s="202"/>
       <c r="E43" s="6">
         <v>28</v>
       </c>
       <c r="F43" s="6">
         <v>33</v>
       </c>
-      <c r="G43" s="200">
+      <c r="G43" s="201">
         <v>36</v>
       </c>
-      <c r="H43" s="201"/>
-      <c r="I43" s="200">
+      <c r="H43" s="202"/>
+      <c r="I43" s="201">
         <v>41</v>
       </c>
-      <c r="J43" s="201"/>
+      <c r="J43" s="202"/>
       <c r="K43" s="1"/>
       <c r="L43" s="1"/>
       <c r="M43" s="1"/>
     </row>
     <row r="44" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B44" s="197" t="s">
+      <c r="B44" s="207" t="s">
         <v>138</v>
       </c>
-      <c r="C44" s="198"/>
-      <c r="D44" s="198"/>
-      <c r="E44" s="198"/>
-      <c r="F44" s="198"/>
-      <c r="G44" s="198"/>
-      <c r="H44" s="198"/>
-      <c r="I44" s="198"/>
-      <c r="J44" s="199"/>
+      <c r="C44" s="208"/>
+      <c r="D44" s="208"/>
+      <c r="E44" s="208"/>
+      <c r="F44" s="208"/>
+      <c r="G44" s="208"/>
+      <c r="H44" s="208"/>
+      <c r="I44" s="208"/>
+      <c r="J44" s="209"/>
       <c r="K44" s="1"/>
       <c r="L44" s="1"/>
       <c r="M44" s="1"/>
@@ -15384,24 +17303,24 @@
       <c r="B45" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="C45" s="200">
+      <c r="C45" s="201">
         <v>278</v>
       </c>
-      <c r="D45" s="201"/>
+      <c r="D45" s="202"/>
       <c r="E45" s="6">
         <v>336</v>
       </c>
       <c r="F45" s="6">
         <v>393</v>
       </c>
-      <c r="G45" s="200">
+      <c r="G45" s="201">
         <v>426</v>
       </c>
-      <c r="H45" s="201"/>
-      <c r="I45" s="200">
+      <c r="H45" s="202"/>
+      <c r="I45" s="201">
         <v>475</v>
       </c>
-      <c r="J45" s="201"/>
+      <c r="J45" s="202"/>
       <c r="K45" s="1"/>
       <c r="L45" s="1"/>
       <c r="M45" s="1"/>
@@ -15410,24 +17329,24 @@
       <c r="B46" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="C46" s="200">
+      <c r="C46" s="201">
         <v>25</v>
       </c>
-      <c r="D46" s="201"/>
+      <c r="D46" s="202"/>
       <c r="E46" s="6">
         <v>26</v>
       </c>
       <c r="F46" s="6">
         <v>31</v>
       </c>
-      <c r="G46" s="200">
+      <c r="G46" s="201">
         <v>36</v>
       </c>
-      <c r="H46" s="201"/>
-      <c r="I46" s="200">
+      <c r="H46" s="202"/>
+      <c r="I46" s="201">
         <v>41</v>
       </c>
-      <c r="J46" s="201"/>
+      <c r="J46" s="202"/>
       <c r="K46" s="1"/>
       <c r="L46" s="1"/>
       <c r="M46" s="1"/>
@@ -15436,16 +17355,16 @@
       <c r="B47" s="7" t="s">
         <v>140</v>
       </c>
-      <c r="C47" s="194" t="s">
+      <c r="C47" s="200" t="s">
         <v>141</v>
       </c>
-      <c r="D47" s="194"/>
-      <c r="E47" s="194"/>
-      <c r="F47" s="194"/>
-      <c r="G47" s="194"/>
-      <c r="H47" s="194"/>
-      <c r="I47" s="194"/>
-      <c r="J47" s="195"/>
+      <c r="D47" s="200"/>
+      <c r="E47" s="200"/>
+      <c r="F47" s="200"/>
+      <c r="G47" s="200"/>
+      <c r="H47" s="200"/>
+      <c r="I47" s="200"/>
+      <c r="J47" s="199"/>
       <c r="K47" s="1"/>
       <c r="L47" s="1"/>
       <c r="M47" s="1"/>
@@ -15454,16 +17373,16 @@
       <c r="B48" s="7" t="s">
         <v>142</v>
       </c>
-      <c r="C48" s="194" t="s">
+      <c r="C48" s="200" t="s">
         <v>143</v>
       </c>
-      <c r="D48" s="194"/>
-      <c r="E48" s="194"/>
-      <c r="F48" s="194"/>
-      <c r="G48" s="194"/>
-      <c r="H48" s="194"/>
-      <c r="I48" s="194"/>
-      <c r="J48" s="195"/>
+      <c r="D48" s="200"/>
+      <c r="E48" s="200"/>
+      <c r="F48" s="200"/>
+      <c r="G48" s="200"/>
+      <c r="H48" s="200"/>
+      <c r="I48" s="200"/>
+      <c r="J48" s="199"/>
       <c r="K48" s="1"/>
       <c r="L48" s="1"/>
       <c r="M48" s="1"/>
@@ -15472,134 +17391,22 @@
       <c r="B49" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="C49" s="194" t="s">
+      <c r="C49" s="200" t="s">
         <v>144</v>
       </c>
-      <c r="D49" s="194"/>
-      <c r="E49" s="194"/>
-      <c r="F49" s="194"/>
-      <c r="G49" s="194"/>
-      <c r="H49" s="194"/>
-      <c r="I49" s="194"/>
-      <c r="J49" s="195"/>
+      <c r="D49" s="200"/>
+      <c r="E49" s="200"/>
+      <c r="F49" s="200"/>
+      <c r="G49" s="200"/>
+      <c r="H49" s="200"/>
+      <c r="I49" s="200"/>
+      <c r="J49" s="199"/>
       <c r="K49" s="1"/>
       <c r="L49" s="1"/>
       <c r="M49" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="136">
-    <mergeCell ref="B1:M1"/>
-    <mergeCell ref="B3:L3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="D4:E4"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="H4:I4"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="D5:E5"/>
-    <mergeCell ref="F5:G5"/>
-    <mergeCell ref="H5:I5"/>
-    <mergeCell ref="J5:K5"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="D6:E6"/>
-    <mergeCell ref="F6:G6"/>
-    <mergeCell ref="H6:I6"/>
-    <mergeCell ref="J6:K6"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="D7:L7"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="D8:L8"/>
-    <mergeCell ref="B10:L10"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="D11:E11"/>
-    <mergeCell ref="F11:G11"/>
-    <mergeCell ref="H11:I11"/>
-    <mergeCell ref="J11:K11"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="F12:G12"/>
-    <mergeCell ref="H12:I12"/>
-    <mergeCell ref="J12:K12"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="D13:E13"/>
-    <mergeCell ref="F13:G13"/>
-    <mergeCell ref="H13:I13"/>
-    <mergeCell ref="J13:K13"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="D14:L14"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="D15:L15"/>
-    <mergeCell ref="B16:L16"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="D17:E17"/>
-    <mergeCell ref="F17:G17"/>
-    <mergeCell ref="H17:I17"/>
-    <mergeCell ref="J17:K17"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="D18:E18"/>
-    <mergeCell ref="F18:G18"/>
-    <mergeCell ref="H18:I18"/>
-    <mergeCell ref="J18:K18"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="D19:E19"/>
-    <mergeCell ref="F19:G19"/>
-    <mergeCell ref="H19:I19"/>
-    <mergeCell ref="J19:K19"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="D20:L20"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="D21:L21"/>
-    <mergeCell ref="B22:L22"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="D23:E23"/>
-    <mergeCell ref="F23:G23"/>
-    <mergeCell ref="H23:I23"/>
-    <mergeCell ref="J23:K23"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="D24:E24"/>
-    <mergeCell ref="F24:G24"/>
-    <mergeCell ref="H24:I24"/>
-    <mergeCell ref="J24:K24"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="D25:E25"/>
-    <mergeCell ref="F25:G25"/>
-    <mergeCell ref="H25:I25"/>
-    <mergeCell ref="J25:K25"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="D26:L26"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="D27:L27"/>
-    <mergeCell ref="B28:L28"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="D29:E29"/>
-    <mergeCell ref="F29:G29"/>
-    <mergeCell ref="H29:I29"/>
-    <mergeCell ref="J29:K29"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="D30:E30"/>
-    <mergeCell ref="F30:G30"/>
-    <mergeCell ref="H30:I30"/>
-    <mergeCell ref="J30:K30"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="D31:E31"/>
-    <mergeCell ref="F31:G31"/>
-    <mergeCell ref="H31:I31"/>
-    <mergeCell ref="J31:K31"/>
-    <mergeCell ref="I40:J40"/>
-    <mergeCell ref="C36:D36"/>
-    <mergeCell ref="G36:H36"/>
-    <mergeCell ref="I36:J36"/>
-    <mergeCell ref="C37:D37"/>
-    <mergeCell ref="G37:H37"/>
-    <mergeCell ref="I37:J37"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="D32:L32"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="D33:L33"/>
-    <mergeCell ref="B34:J34"/>
-    <mergeCell ref="C35:D35"/>
-    <mergeCell ref="G35:H35"/>
-    <mergeCell ref="I35:J35"/>
     <mergeCell ref="C47:J47"/>
     <mergeCell ref="C48:J48"/>
     <mergeCell ref="C49:J49"/>
@@ -15624,6 +17431,118 @@
     <mergeCell ref="I39:J39"/>
     <mergeCell ref="C40:D40"/>
     <mergeCell ref="G40:H40"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="D31:E31"/>
+    <mergeCell ref="F31:G31"/>
+    <mergeCell ref="H31:I31"/>
+    <mergeCell ref="J31:K31"/>
+    <mergeCell ref="I40:J40"/>
+    <mergeCell ref="C36:D36"/>
+    <mergeCell ref="G36:H36"/>
+    <mergeCell ref="I36:J36"/>
+    <mergeCell ref="C37:D37"/>
+    <mergeCell ref="G37:H37"/>
+    <mergeCell ref="I37:J37"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="D32:L32"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="D33:L33"/>
+    <mergeCell ref="B34:J34"/>
+    <mergeCell ref="C35:D35"/>
+    <mergeCell ref="G35:H35"/>
+    <mergeCell ref="I35:J35"/>
+    <mergeCell ref="B28:L28"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="D29:E29"/>
+    <mergeCell ref="F29:G29"/>
+    <mergeCell ref="H29:I29"/>
+    <mergeCell ref="J29:K29"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="D30:E30"/>
+    <mergeCell ref="F30:G30"/>
+    <mergeCell ref="H30:I30"/>
+    <mergeCell ref="J30:K30"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="D25:E25"/>
+    <mergeCell ref="F25:G25"/>
+    <mergeCell ref="H25:I25"/>
+    <mergeCell ref="J25:K25"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="D26:L26"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="D27:L27"/>
+    <mergeCell ref="B22:L22"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="F23:G23"/>
+    <mergeCell ref="H23:I23"/>
+    <mergeCell ref="J23:K23"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="D24:E24"/>
+    <mergeCell ref="F24:G24"/>
+    <mergeCell ref="H24:I24"/>
+    <mergeCell ref="J24:K24"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="F19:G19"/>
+    <mergeCell ref="H19:I19"/>
+    <mergeCell ref="J19:K19"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="D20:L20"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="D21:L21"/>
+    <mergeCell ref="B16:L16"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="D17:E17"/>
+    <mergeCell ref="F17:G17"/>
+    <mergeCell ref="H17:I17"/>
+    <mergeCell ref="J17:K17"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="D18:E18"/>
+    <mergeCell ref="F18:G18"/>
+    <mergeCell ref="H18:I18"/>
+    <mergeCell ref="J18:K18"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="F13:G13"/>
+    <mergeCell ref="H13:I13"/>
+    <mergeCell ref="J13:K13"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="D14:L14"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="D15:L15"/>
+    <mergeCell ref="B10:L10"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="D11:E11"/>
+    <mergeCell ref="F11:G11"/>
+    <mergeCell ref="H11:I11"/>
+    <mergeCell ref="J11:K11"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="F12:G12"/>
+    <mergeCell ref="H12:I12"/>
+    <mergeCell ref="J12:K12"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="H6:I6"/>
+    <mergeCell ref="J6:K6"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="D7:L7"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="D8:L8"/>
+    <mergeCell ref="B1:M1"/>
+    <mergeCell ref="B3:L3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="F5:G5"/>
+    <mergeCell ref="H5:I5"/>
+    <mergeCell ref="J5:K5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -15646,98 +17565,98 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="132" t="s">
+      <c r="B2" s="169" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="133"/>
-      <c r="D2" s="133"/>
-      <c r="E2" s="133"/>
-      <c r="F2" s="133"/>
-      <c r="G2" s="134"/>
-      <c r="I2" s="132" t="s">
+      <c r="C2" s="170"/>
+      <c r="D2" s="170"/>
+      <c r="E2" s="170"/>
+      <c r="F2" s="170"/>
+      <c r="G2" s="171"/>
+      <c r="I2" s="169" t="s">
         <v>145</v>
       </c>
-      <c r="J2" s="133"/>
-      <c r="K2" s="133"/>
-      <c r="L2" s="133"/>
-      <c r="M2" s="133"/>
-      <c r="N2" s="134"/>
-      <c r="P2" s="132" t="s">
+      <c r="J2" s="170"/>
+      <c r="K2" s="170"/>
+      <c r="L2" s="170"/>
+      <c r="M2" s="170"/>
+      <c r="N2" s="171"/>
+      <c r="P2" s="169" t="s">
         <v>150</v>
       </c>
-      <c r="Q2" s="133"/>
-      <c r="R2" s="133"/>
-      <c r="S2" s="133"/>
-      <c r="T2" s="133"/>
-      <c r="U2" s="134"/>
-      <c r="W2" s="132" t="s">
+      <c r="Q2" s="170"/>
+      <c r="R2" s="170"/>
+      <c r="S2" s="170"/>
+      <c r="T2" s="170"/>
+      <c r="U2" s="171"/>
+      <c r="W2" s="169" t="s">
         <v>0</v>
       </c>
-      <c r="X2" s="133"/>
-      <c r="Y2" s="133"/>
-      <c r="Z2" s="133"/>
-      <c r="AA2" s="133"/>
-      <c r="AB2" s="134"/>
+      <c r="X2" s="170"/>
+      <c r="Y2" s="170"/>
+      <c r="Z2" s="170"/>
+      <c r="AA2" s="170"/>
+      <c r="AB2" s="171"/>
     </row>
     <row r="3" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="B3" s="135"/>
-      <c r="C3" s="136"/>
-      <c r="D3" s="136"/>
-      <c r="E3" s="136"/>
-      <c r="F3" s="136"/>
-      <c r="G3" s="137"/>
-      <c r="I3" s="135"/>
-      <c r="J3" s="136"/>
-      <c r="K3" s="136"/>
-      <c r="L3" s="136"/>
-      <c r="M3" s="136"/>
-      <c r="N3" s="137"/>
-      <c r="P3" s="135"/>
-      <c r="Q3" s="136"/>
-      <c r="R3" s="136"/>
-      <c r="S3" s="136"/>
-      <c r="T3" s="136"/>
-      <c r="U3" s="137"/>
-      <c r="W3" s="135"/>
-      <c r="X3" s="136"/>
-      <c r="Y3" s="136"/>
-      <c r="Z3" s="136"/>
-      <c r="AA3" s="136"/>
-      <c r="AB3" s="137"/>
+      <c r="B3" s="172"/>
+      <c r="C3" s="173"/>
+      <c r="D3" s="173"/>
+      <c r="E3" s="173"/>
+      <c r="F3" s="173"/>
+      <c r="G3" s="174"/>
+      <c r="I3" s="172"/>
+      <c r="J3" s="173"/>
+      <c r="K3" s="173"/>
+      <c r="L3" s="173"/>
+      <c r="M3" s="173"/>
+      <c r="N3" s="174"/>
+      <c r="P3" s="172"/>
+      <c r="Q3" s="173"/>
+      <c r="R3" s="173"/>
+      <c r="S3" s="173"/>
+      <c r="T3" s="173"/>
+      <c r="U3" s="174"/>
+      <c r="W3" s="172"/>
+      <c r="X3" s="173"/>
+      <c r="Y3" s="173"/>
+      <c r="Z3" s="173"/>
+      <c r="AA3" s="173"/>
+      <c r="AB3" s="174"/>
     </row>
     <row r="4" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="B4" s="141" t="s">
+      <c r="B4" s="162" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="142"/>
-      <c r="D4" s="142"/>
-      <c r="E4" s="142"/>
-      <c r="F4" s="142"/>
-      <c r="G4" s="143"/>
-      <c r="I4" s="141" t="s">
+      <c r="C4" s="163"/>
+      <c r="D4" s="163"/>
+      <c r="E4" s="163"/>
+      <c r="F4" s="163"/>
+      <c r="G4" s="164"/>
+      <c r="I4" s="162" t="s">
         <v>4</v>
       </c>
-      <c r="J4" s="142"/>
-      <c r="K4" s="142"/>
-      <c r="L4" s="142"/>
-      <c r="M4" s="142"/>
-      <c r="N4" s="143"/>
-      <c r="P4" s="141" t="s">
+      <c r="J4" s="163"/>
+      <c r="K4" s="163"/>
+      <c r="L4" s="163"/>
+      <c r="M4" s="163"/>
+      <c r="N4" s="164"/>
+      <c r="P4" s="162" t="s">
         <v>4</v>
       </c>
-      <c r="Q4" s="142"/>
-      <c r="R4" s="142"/>
-      <c r="S4" s="142"/>
-      <c r="T4" s="142"/>
-      <c r="U4" s="143"/>
-      <c r="W4" s="141" t="s">
+      <c r="Q4" s="163"/>
+      <c r="R4" s="163"/>
+      <c r="S4" s="163"/>
+      <c r="T4" s="163"/>
+      <c r="U4" s="164"/>
+      <c r="W4" s="162" t="s">
         <v>4</v>
       </c>
-      <c r="X4" s="142"/>
-      <c r="Y4" s="142"/>
-      <c r="Z4" s="142"/>
-      <c r="AA4" s="142"/>
-      <c r="AB4" s="143"/>
+      <c r="X4" s="163"/>
+      <c r="Y4" s="163"/>
+      <c r="Z4" s="163"/>
+      <c r="AA4" s="163"/>
+      <c r="AB4" s="164"/>
     </row>
     <row r="5" spans="1:28" x14ac:dyDescent="0.25">
       <c r="B5" s="9" t="s">
@@ -15975,64 +17894,64 @@
       </c>
     </row>
     <row r="8" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="B8" s="138"/>
-      <c r="C8" s="139"/>
-      <c r="D8" s="139"/>
-      <c r="E8" s="139"/>
-      <c r="F8" s="139"/>
-      <c r="G8" s="140"/>
-      <c r="I8" s="193"/>
-      <c r="J8" s="187"/>
-      <c r="K8" s="187"/>
-      <c r="L8" s="187"/>
-      <c r="M8" s="187"/>
-      <c r="N8" s="188"/>
-      <c r="P8" s="193"/>
-      <c r="Q8" s="187"/>
-      <c r="R8" s="187"/>
-      <c r="S8" s="187"/>
-      <c r="T8" s="187"/>
-      <c r="U8" s="188"/>
-      <c r="W8" s="138"/>
-      <c r="X8" s="139"/>
-      <c r="Y8" s="139"/>
-      <c r="Z8" s="139"/>
-      <c r="AA8" s="139"/>
-      <c r="AB8" s="140"/>
+      <c r="B8" s="175"/>
+      <c r="C8" s="157"/>
+      <c r="D8" s="157"/>
+      <c r="E8" s="157"/>
+      <c r="F8" s="157"/>
+      <c r="G8" s="158"/>
+      <c r="I8" s="189"/>
+      <c r="J8" s="190"/>
+      <c r="K8" s="190"/>
+      <c r="L8" s="190"/>
+      <c r="M8" s="190"/>
+      <c r="N8" s="191"/>
+      <c r="P8" s="189"/>
+      <c r="Q8" s="190"/>
+      <c r="R8" s="190"/>
+      <c r="S8" s="190"/>
+      <c r="T8" s="190"/>
+      <c r="U8" s="191"/>
+      <c r="W8" s="175"/>
+      <c r="X8" s="157"/>
+      <c r="Y8" s="157"/>
+      <c r="Z8" s="157"/>
+      <c r="AA8" s="157"/>
+      <c r="AB8" s="158"/>
     </row>
     <row r="9" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="B9" s="141" t="s">
+      <c r="B9" s="162" t="s">
         <v>31</v>
       </c>
-      <c r="C9" s="142"/>
-      <c r="D9" s="142"/>
-      <c r="E9" s="142"/>
-      <c r="F9" s="142"/>
-      <c r="G9" s="143"/>
-      <c r="I9" s="141" t="s">
+      <c r="C9" s="163"/>
+      <c r="D9" s="163"/>
+      <c r="E9" s="163"/>
+      <c r="F9" s="163"/>
+      <c r="G9" s="164"/>
+      <c r="I9" s="162" t="s">
         <v>31</v>
       </c>
-      <c r="J9" s="142"/>
-      <c r="K9" s="142"/>
-      <c r="L9" s="142"/>
-      <c r="M9" s="142"/>
-      <c r="N9" s="143"/>
-      <c r="P9" s="141" t="s">
+      <c r="J9" s="163"/>
+      <c r="K9" s="163"/>
+      <c r="L9" s="163"/>
+      <c r="M9" s="163"/>
+      <c r="N9" s="164"/>
+      <c r="P9" s="162" t="s">
         <v>31</v>
       </c>
-      <c r="Q9" s="142"/>
-      <c r="R9" s="142"/>
-      <c r="S9" s="142"/>
-      <c r="T9" s="142"/>
-      <c r="U9" s="143"/>
-      <c r="W9" s="141" t="s">
+      <c r="Q9" s="163"/>
+      <c r="R9" s="163"/>
+      <c r="S9" s="163"/>
+      <c r="T9" s="163"/>
+      <c r="U9" s="164"/>
+      <c r="W9" s="162" t="s">
         <v>31</v>
       </c>
-      <c r="X9" s="142"/>
-      <c r="Y9" s="142"/>
-      <c r="Z9" s="142"/>
-      <c r="AA9" s="142"/>
-      <c r="AB9" s="143"/>
+      <c r="X9" s="163"/>
+      <c r="Y9" s="163"/>
+      <c r="Z9" s="163"/>
+      <c r="AA9" s="163"/>
+      <c r="AB9" s="164"/>
     </row>
     <row r="10" spans="1:28" x14ac:dyDescent="0.25">
       <c r="B10" s="9" t="s">
@@ -16267,64 +18186,64 @@
       </c>
     </row>
     <row r="13" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="B13" s="138"/>
-      <c r="C13" s="139"/>
-      <c r="D13" s="139"/>
-      <c r="E13" s="139"/>
-      <c r="F13" s="139"/>
-      <c r="G13" s="140"/>
-      <c r="I13" s="193"/>
-      <c r="J13" s="187"/>
-      <c r="K13" s="187"/>
-      <c r="L13" s="187"/>
-      <c r="M13" s="187"/>
-      <c r="N13" s="188"/>
-      <c r="P13" s="193"/>
-      <c r="Q13" s="187"/>
-      <c r="R13" s="187"/>
-      <c r="S13" s="187"/>
-      <c r="T13" s="187"/>
-      <c r="U13" s="188"/>
-      <c r="W13" s="138"/>
-      <c r="X13" s="139"/>
-      <c r="Y13" s="139"/>
-      <c r="Z13" s="139"/>
-      <c r="AA13" s="139"/>
-      <c r="AB13" s="140"/>
+      <c r="B13" s="175"/>
+      <c r="C13" s="157"/>
+      <c r="D13" s="157"/>
+      <c r="E13" s="157"/>
+      <c r="F13" s="157"/>
+      <c r="G13" s="158"/>
+      <c r="I13" s="189"/>
+      <c r="J13" s="190"/>
+      <c r="K13" s="190"/>
+      <c r="L13" s="190"/>
+      <c r="M13" s="190"/>
+      <c r="N13" s="191"/>
+      <c r="P13" s="189"/>
+      <c r="Q13" s="190"/>
+      <c r="R13" s="190"/>
+      <c r="S13" s="190"/>
+      <c r="T13" s="190"/>
+      <c r="U13" s="191"/>
+      <c r="W13" s="175"/>
+      <c r="X13" s="157"/>
+      <c r="Y13" s="157"/>
+      <c r="Z13" s="157"/>
+      <c r="AA13" s="157"/>
+      <c r="AB13" s="158"/>
     </row>
     <row r="14" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="B14" s="141" t="s">
+      <c r="B14" s="162" t="s">
         <v>47</v>
       </c>
-      <c r="C14" s="142"/>
-      <c r="D14" s="142"/>
-      <c r="E14" s="142"/>
-      <c r="F14" s="142"/>
-      <c r="G14" s="143"/>
-      <c r="I14" s="141" t="s">
+      <c r="C14" s="163"/>
+      <c r="D14" s="163"/>
+      <c r="E14" s="163"/>
+      <c r="F14" s="163"/>
+      <c r="G14" s="164"/>
+      <c r="I14" s="162" t="s">
         <v>47</v>
       </c>
-      <c r="J14" s="142"/>
-      <c r="K14" s="142"/>
-      <c r="L14" s="142"/>
-      <c r="M14" s="142"/>
-      <c r="N14" s="143"/>
-      <c r="P14" s="141" t="s">
+      <c r="J14" s="163"/>
+      <c r="K14" s="163"/>
+      <c r="L14" s="163"/>
+      <c r="M14" s="163"/>
+      <c r="N14" s="164"/>
+      <c r="P14" s="162" t="s">
         <v>47</v>
       </c>
-      <c r="Q14" s="142"/>
-      <c r="R14" s="142"/>
-      <c r="S14" s="142"/>
-      <c r="T14" s="142"/>
-      <c r="U14" s="143"/>
-      <c r="W14" s="141" t="s">
+      <c r="Q14" s="163"/>
+      <c r="R14" s="163"/>
+      <c r="S14" s="163"/>
+      <c r="T14" s="163"/>
+      <c r="U14" s="164"/>
+      <c r="W14" s="162" t="s">
         <v>47</v>
       </c>
-      <c r="X14" s="142"/>
-      <c r="Y14" s="142"/>
-      <c r="Z14" s="142"/>
-      <c r="AA14" s="142"/>
-      <c r="AB14" s="143"/>
+      <c r="X14" s="163"/>
+      <c r="Y14" s="163"/>
+      <c r="Z14" s="163"/>
+      <c r="AA14" s="163"/>
+      <c r="AB14" s="164"/>
     </row>
     <row r="15" spans="1:28" x14ac:dyDescent="0.25">
       <c r="B15" s="9" t="s">
@@ -16559,64 +18478,64 @@
       </c>
     </row>
     <row r="18" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="B18" s="138"/>
-      <c r="C18" s="139"/>
-      <c r="D18" s="139"/>
-      <c r="E18" s="139"/>
-      <c r="F18" s="139"/>
-      <c r="G18" s="140"/>
-      <c r="I18" s="193"/>
-      <c r="J18" s="187"/>
-      <c r="K18" s="187"/>
-      <c r="L18" s="187"/>
-      <c r="M18" s="187"/>
-      <c r="N18" s="188"/>
-      <c r="P18" s="193"/>
-      <c r="Q18" s="187"/>
-      <c r="R18" s="187"/>
-      <c r="S18" s="187"/>
-      <c r="T18" s="187"/>
-      <c r="U18" s="188"/>
-      <c r="W18" s="138"/>
-      <c r="X18" s="139"/>
-      <c r="Y18" s="139"/>
-      <c r="Z18" s="139"/>
-      <c r="AA18" s="139"/>
-      <c r="AB18" s="140"/>
+      <c r="B18" s="175"/>
+      <c r="C18" s="157"/>
+      <c r="D18" s="157"/>
+      <c r="E18" s="157"/>
+      <c r="F18" s="157"/>
+      <c r="G18" s="158"/>
+      <c r="I18" s="189"/>
+      <c r="J18" s="190"/>
+      <c r="K18" s="190"/>
+      <c r="L18" s="190"/>
+      <c r="M18" s="190"/>
+      <c r="N18" s="191"/>
+      <c r="P18" s="189"/>
+      <c r="Q18" s="190"/>
+      <c r="R18" s="190"/>
+      <c r="S18" s="190"/>
+      <c r="T18" s="190"/>
+      <c r="U18" s="191"/>
+      <c r="W18" s="175"/>
+      <c r="X18" s="157"/>
+      <c r="Y18" s="157"/>
+      <c r="Z18" s="157"/>
+      <c r="AA18" s="157"/>
+      <c r="AB18" s="158"/>
     </row>
     <row r="19" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="B19" s="141" t="s">
+      <c r="B19" s="162" t="s">
         <v>56</v>
       </c>
-      <c r="C19" s="142"/>
-      <c r="D19" s="142"/>
-      <c r="E19" s="142"/>
-      <c r="F19" s="142"/>
-      <c r="G19" s="143"/>
-      <c r="I19" s="141" t="s">
+      <c r="C19" s="163"/>
+      <c r="D19" s="163"/>
+      <c r="E19" s="163"/>
+      <c r="F19" s="163"/>
+      <c r="G19" s="164"/>
+      <c r="I19" s="162" t="s">
         <v>56</v>
       </c>
-      <c r="J19" s="142"/>
-      <c r="K19" s="142"/>
-      <c r="L19" s="142"/>
-      <c r="M19" s="142"/>
-      <c r="N19" s="143"/>
-      <c r="P19" s="141" t="s">
+      <c r="J19" s="163"/>
+      <c r="K19" s="163"/>
+      <c r="L19" s="163"/>
+      <c r="M19" s="163"/>
+      <c r="N19" s="164"/>
+      <c r="P19" s="162" t="s">
         <v>56</v>
       </c>
-      <c r="Q19" s="142"/>
-      <c r="R19" s="142"/>
-      <c r="S19" s="142"/>
-      <c r="T19" s="142"/>
-      <c r="U19" s="143"/>
-      <c r="W19" s="141" t="s">
+      <c r="Q19" s="163"/>
+      <c r="R19" s="163"/>
+      <c r="S19" s="163"/>
+      <c r="T19" s="163"/>
+      <c r="U19" s="164"/>
+      <c r="W19" s="162" t="s">
         <v>56</v>
       </c>
-      <c r="X19" s="142"/>
-      <c r="Y19" s="142"/>
-      <c r="Z19" s="142"/>
-      <c r="AA19" s="142"/>
-      <c r="AB19" s="143"/>
+      <c r="X19" s="163"/>
+      <c r="Y19" s="163"/>
+      <c r="Z19" s="163"/>
+      <c r="AA19" s="163"/>
+      <c r="AB19" s="164"/>
     </row>
     <row r="20" spans="1:28" x14ac:dyDescent="0.25">
       <c r="B20" s="9" t="s">
@@ -16851,64 +18770,64 @@
       </c>
     </row>
     <row r="23" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="B23" s="138"/>
-      <c r="C23" s="139"/>
-      <c r="D23" s="139"/>
-      <c r="E23" s="139"/>
-      <c r="F23" s="139"/>
-      <c r="G23" s="140"/>
-      <c r="I23" s="193"/>
-      <c r="J23" s="187"/>
-      <c r="K23" s="187"/>
-      <c r="L23" s="187"/>
-      <c r="M23" s="187"/>
-      <c r="N23" s="188"/>
-      <c r="P23" s="193"/>
-      <c r="Q23" s="187"/>
-      <c r="R23" s="187"/>
-      <c r="S23" s="187"/>
-      <c r="T23" s="187"/>
-      <c r="U23" s="188"/>
-      <c r="W23" s="138"/>
-      <c r="X23" s="139"/>
-      <c r="Y23" s="139"/>
-      <c r="Z23" s="139"/>
-      <c r="AA23" s="139"/>
-      <c r="AB23" s="140"/>
+      <c r="B23" s="175"/>
+      <c r="C23" s="157"/>
+      <c r="D23" s="157"/>
+      <c r="E23" s="157"/>
+      <c r="F23" s="157"/>
+      <c r="G23" s="158"/>
+      <c r="I23" s="189"/>
+      <c r="J23" s="190"/>
+      <c r="K23" s="190"/>
+      <c r="L23" s="190"/>
+      <c r="M23" s="190"/>
+      <c r="N23" s="191"/>
+      <c r="P23" s="189"/>
+      <c r="Q23" s="190"/>
+      <c r="R23" s="190"/>
+      <c r="S23" s="190"/>
+      <c r="T23" s="190"/>
+      <c r="U23" s="191"/>
+      <c r="W23" s="175"/>
+      <c r="X23" s="157"/>
+      <c r="Y23" s="157"/>
+      <c r="Z23" s="157"/>
+      <c r="AA23" s="157"/>
+      <c r="AB23" s="158"/>
     </row>
     <row r="24" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="B24" s="141" t="s">
+      <c r="B24" s="162" t="s">
         <v>61</v>
       </c>
-      <c r="C24" s="142"/>
-      <c r="D24" s="142"/>
-      <c r="E24" s="142"/>
-      <c r="F24" s="142"/>
-      <c r="G24" s="143"/>
-      <c r="I24" s="141" t="s">
+      <c r="C24" s="163"/>
+      <c r="D24" s="163"/>
+      <c r="E24" s="163"/>
+      <c r="F24" s="163"/>
+      <c r="G24" s="164"/>
+      <c r="I24" s="162" t="s">
         <v>61</v>
       </c>
-      <c r="J24" s="142"/>
-      <c r="K24" s="142"/>
-      <c r="L24" s="142"/>
-      <c r="M24" s="142"/>
-      <c r="N24" s="143"/>
-      <c r="P24" s="141" t="s">
+      <c r="J24" s="163"/>
+      <c r="K24" s="163"/>
+      <c r="L24" s="163"/>
+      <c r="M24" s="163"/>
+      <c r="N24" s="164"/>
+      <c r="P24" s="162" t="s">
         <v>61</v>
       </c>
-      <c r="Q24" s="142"/>
-      <c r="R24" s="142"/>
-      <c r="S24" s="142"/>
-      <c r="T24" s="142"/>
-      <c r="U24" s="143"/>
-      <c r="W24" s="141" t="s">
+      <c r="Q24" s="163"/>
+      <c r="R24" s="163"/>
+      <c r="S24" s="163"/>
+      <c r="T24" s="163"/>
+      <c r="U24" s="164"/>
+      <c r="W24" s="162" t="s">
         <v>61</v>
       </c>
-      <c r="X24" s="142"/>
-      <c r="Y24" s="142"/>
-      <c r="Z24" s="142"/>
-      <c r="AA24" s="142"/>
-      <c r="AB24" s="143"/>
+      <c r="X24" s="163"/>
+      <c r="Y24" s="163"/>
+      <c r="Z24" s="163"/>
+      <c r="AA24" s="163"/>
+      <c r="AB24" s="164"/>
     </row>
     <row r="25" spans="1:28" x14ac:dyDescent="0.25">
       <c r="B25" s="9" t="s">
@@ -17169,38 +19088,38 @@
       <c r="AB28" s="10"/>
     </row>
     <row r="29" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="B29" s="141" t="s">
+      <c r="B29" s="162" t="s">
         <v>63</v>
       </c>
-      <c r="C29" s="142"/>
-      <c r="D29" s="142"/>
-      <c r="E29" s="142"/>
-      <c r="F29" s="142"/>
-      <c r="G29" s="143"/>
-      <c r="I29" s="141" t="s">
+      <c r="C29" s="163"/>
+      <c r="D29" s="163"/>
+      <c r="E29" s="163"/>
+      <c r="F29" s="163"/>
+      <c r="G29" s="164"/>
+      <c r="I29" s="162" t="s">
         <v>63</v>
       </c>
-      <c r="J29" s="142"/>
-      <c r="K29" s="142"/>
-      <c r="L29" s="142"/>
-      <c r="M29" s="142"/>
-      <c r="N29" s="143"/>
-      <c r="P29" s="141" t="s">
+      <c r="J29" s="163"/>
+      <c r="K29" s="163"/>
+      <c r="L29" s="163"/>
+      <c r="M29" s="163"/>
+      <c r="N29" s="164"/>
+      <c r="P29" s="162" t="s">
         <v>63</v>
       </c>
-      <c r="Q29" s="142"/>
-      <c r="R29" s="142"/>
-      <c r="S29" s="142"/>
-      <c r="T29" s="142"/>
-      <c r="U29" s="143"/>
-      <c r="W29" s="141" t="s">
+      <c r="Q29" s="163"/>
+      <c r="R29" s="163"/>
+      <c r="S29" s="163"/>
+      <c r="T29" s="163"/>
+      <c r="U29" s="164"/>
+      <c r="W29" s="162" t="s">
         <v>63</v>
       </c>
-      <c r="X29" s="142"/>
-      <c r="Y29" s="142"/>
-      <c r="Z29" s="142"/>
-      <c r="AA29" s="142"/>
-      <c r="AB29" s="143"/>
+      <c r="X29" s="163"/>
+      <c r="Y29" s="163"/>
+      <c r="Z29" s="163"/>
+      <c r="AA29" s="163"/>
+      <c r="AB29" s="164"/>
     </row>
     <row r="30" spans="1:28" x14ac:dyDescent="0.25">
       <c r="B30" s="9" t="s">
@@ -17457,220 +19376,220 @@
       <c r="B34" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="C34" s="151" t="s">
+      <c r="C34" s="165" t="s">
         <v>74</v>
       </c>
-      <c r="D34" s="152"/>
-      <c r="E34" s="152"/>
-      <c r="F34" s="152"/>
-      <c r="G34" s="153"/>
+      <c r="D34" s="166"/>
+      <c r="E34" s="166"/>
+      <c r="F34" s="166"/>
+      <c r="G34" s="167"/>
       <c r="I34" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="J34" s="191" t="s">
+      <c r="J34" s="187" t="s">
         <v>74</v>
       </c>
-      <c r="K34" s="191"/>
-      <c r="L34" s="191"/>
-      <c r="M34" s="191"/>
-      <c r="N34" s="192"/>
+      <c r="K34" s="187"/>
+      <c r="L34" s="187"/>
+      <c r="M34" s="187"/>
+      <c r="N34" s="188"/>
       <c r="P34" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="Q34" s="191" t="s">
+      <c r="Q34" s="187" t="s">
         <v>74</v>
       </c>
-      <c r="R34" s="191"/>
-      <c r="S34" s="191"/>
-      <c r="T34" s="191"/>
-      <c r="U34" s="192"/>
+      <c r="R34" s="187"/>
+      <c r="S34" s="187"/>
+      <c r="T34" s="187"/>
+      <c r="U34" s="188"/>
       <c r="W34" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="X34" s="151" t="s">
+      <c r="X34" s="165" t="s">
         <v>74</v>
       </c>
-      <c r="Y34" s="152"/>
-      <c r="Z34" s="152"/>
-      <c r="AA34" s="152"/>
-      <c r="AB34" s="153"/>
+      <c r="Y34" s="166"/>
+      <c r="Z34" s="166"/>
+      <c r="AA34" s="166"/>
+      <c r="AB34" s="167"/>
     </row>
     <row r="35" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B35" s="9" t="s">
         <v>75</v>
       </c>
-      <c r="C35" s="147" t="s">
+      <c r="C35" s="156" t="s">
         <v>76</v>
       </c>
-      <c r="D35" s="139"/>
-      <c r="E35" s="139"/>
-      <c r="F35" s="139"/>
-      <c r="G35" s="140"/>
+      <c r="D35" s="157"/>
+      <c r="E35" s="157"/>
+      <c r="F35" s="157"/>
+      <c r="G35" s="158"/>
       <c r="I35" s="9" t="s">
         <v>75</v>
       </c>
-      <c r="J35" s="187" t="s">
+      <c r="J35" s="190" t="s">
         <v>147</v>
       </c>
-      <c r="K35" s="187"/>
-      <c r="L35" s="187"/>
-      <c r="M35" s="187"/>
-      <c r="N35" s="188"/>
+      <c r="K35" s="190"/>
+      <c r="L35" s="190"/>
+      <c r="M35" s="190"/>
+      <c r="N35" s="191"/>
       <c r="P35" s="9" t="s">
         <v>75</v>
       </c>
-      <c r="Q35" s="187" t="s">
+      <c r="Q35" s="190" t="s">
         <v>151</v>
       </c>
-      <c r="R35" s="187"/>
-      <c r="S35" s="187"/>
-      <c r="T35" s="187"/>
-      <c r="U35" s="188"/>
+      <c r="R35" s="190"/>
+      <c r="S35" s="190"/>
+      <c r="T35" s="190"/>
+      <c r="U35" s="191"/>
       <c r="W35" s="9" t="s">
         <v>75</v>
       </c>
-      <c r="X35" s="147" t="s">
+      <c r="X35" s="156" t="s">
         <v>76</v>
       </c>
-      <c r="Y35" s="139"/>
-      <c r="Z35" s="139"/>
-      <c r="AA35" s="139"/>
-      <c r="AB35" s="140"/>
+      <c r="Y35" s="157"/>
+      <c r="Z35" s="157"/>
+      <c r="AA35" s="157"/>
+      <c r="AB35" s="158"/>
     </row>
     <row r="36" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B36" s="9" t="s">
         <v>77</v>
       </c>
-      <c r="C36" s="147" t="s">
+      <c r="C36" s="156" t="s">
         <v>78</v>
       </c>
-      <c r="D36" s="139"/>
-      <c r="E36" s="139"/>
-      <c r="F36" s="139"/>
-      <c r="G36" s="140"/>
+      <c r="D36" s="157"/>
+      <c r="E36" s="157"/>
+      <c r="F36" s="157"/>
+      <c r="G36" s="158"/>
       <c r="I36" s="9" t="s">
         <v>77</v>
       </c>
-      <c r="J36" s="187" t="s">
+      <c r="J36" s="190" t="s">
         <v>78</v>
       </c>
-      <c r="K36" s="187"/>
-      <c r="L36" s="187"/>
-      <c r="M36" s="187"/>
-      <c r="N36" s="188"/>
+      <c r="K36" s="190"/>
+      <c r="L36" s="190"/>
+      <c r="M36" s="190"/>
+      <c r="N36" s="191"/>
       <c r="P36" s="9" t="s">
         <v>77</v>
       </c>
-      <c r="Q36" s="187" t="s">
+      <c r="Q36" s="190" t="s">
         <v>152</v>
       </c>
-      <c r="R36" s="187"/>
-      <c r="S36" s="187"/>
-      <c r="T36" s="187"/>
-      <c r="U36" s="188"/>
+      <c r="R36" s="190"/>
+      <c r="S36" s="190"/>
+      <c r="T36" s="190"/>
+      <c r="U36" s="191"/>
       <c r="W36" s="9" t="s">
         <v>77</v>
       </c>
-      <c r="X36" s="147" t="s">
+      <c r="X36" s="156" t="s">
         <v>78</v>
       </c>
-      <c r="Y36" s="139"/>
-      <c r="Z36" s="139"/>
-      <c r="AA36" s="139"/>
-      <c r="AB36" s="140"/>
+      <c r="Y36" s="157"/>
+      <c r="Z36" s="157"/>
+      <c r="AA36" s="157"/>
+      <c r="AB36" s="158"/>
     </row>
     <row r="37" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B37" s="11" t="s">
         <v>79</v>
       </c>
-      <c r="C37" s="148" t="s">
+      <c r="C37" s="159" t="s">
         <v>80</v>
       </c>
-      <c r="D37" s="149"/>
-      <c r="E37" s="149"/>
-      <c r="F37" s="149"/>
-      <c r="G37" s="150"/>
+      <c r="D37" s="160"/>
+      <c r="E37" s="160"/>
+      <c r="F37" s="160"/>
+      <c r="G37" s="161"/>
       <c r="I37" s="11" t="s">
         <v>79</v>
       </c>
-      <c r="J37" s="189" t="s">
+      <c r="J37" s="192" t="s">
         <v>148</v>
       </c>
-      <c r="K37" s="189"/>
-      <c r="L37" s="189"/>
-      <c r="M37" s="189"/>
-      <c r="N37" s="190"/>
+      <c r="K37" s="192"/>
+      <c r="L37" s="192"/>
+      <c r="M37" s="192"/>
+      <c r="N37" s="193"/>
       <c r="P37" s="11" t="s">
         <v>79</v>
       </c>
-      <c r="Q37" s="189" t="s">
+      <c r="Q37" s="192" t="s">
         <v>153</v>
       </c>
-      <c r="R37" s="189"/>
-      <c r="S37" s="189"/>
-      <c r="T37" s="189"/>
-      <c r="U37" s="190"/>
+      <c r="R37" s="192"/>
+      <c r="S37" s="192"/>
+      <c r="T37" s="192"/>
+      <c r="U37" s="193"/>
       <c r="W37" s="11" t="s">
         <v>79</v>
       </c>
-      <c r="X37" s="148" t="s">
+      <c r="X37" s="159" t="s">
         <v>80</v>
       </c>
-      <c r="Y37" s="149"/>
-      <c r="Z37" s="149"/>
-      <c r="AA37" s="149"/>
-      <c r="AB37" s="150"/>
+      <c r="Y37" s="160"/>
+      <c r="Z37" s="160"/>
+      <c r="AA37" s="160"/>
+      <c r="AB37" s="161"/>
     </row>
     <row r="39" spans="2:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="40" spans="2:28" x14ac:dyDescent="0.25">
-      <c r="I40" s="132" t="s">
+      <c r="I40" s="169" t="s">
         <v>149</v>
       </c>
-      <c r="J40" s="133"/>
-      <c r="K40" s="133"/>
-      <c r="L40" s="133"/>
-      <c r="M40" s="133"/>
-      <c r="N40" s="134"/>
-      <c r="P40" s="132" t="s">
+      <c r="J40" s="170"/>
+      <c r="K40" s="170"/>
+      <c r="L40" s="170"/>
+      <c r="M40" s="170"/>
+      <c r="N40" s="171"/>
+      <c r="P40" s="169" t="s">
         <v>154</v>
       </c>
-      <c r="Q40" s="133"/>
-      <c r="R40" s="133"/>
-      <c r="S40" s="133"/>
-      <c r="T40" s="133"/>
-      <c r="U40" s="134"/>
+      <c r="Q40" s="170"/>
+      <c r="R40" s="170"/>
+      <c r="S40" s="170"/>
+      <c r="T40" s="170"/>
+      <c r="U40" s="171"/>
     </row>
     <row r="41" spans="2:28" x14ac:dyDescent="0.25">
-      <c r="I41" s="135"/>
-      <c r="J41" s="136"/>
-      <c r="K41" s="136"/>
-      <c r="L41" s="136"/>
-      <c r="M41" s="136"/>
-      <c r="N41" s="137"/>
-      <c r="P41" s="135"/>
-      <c r="Q41" s="136"/>
-      <c r="R41" s="136"/>
-      <c r="S41" s="136"/>
-      <c r="T41" s="136"/>
-      <c r="U41" s="137"/>
+      <c r="I41" s="172"/>
+      <c r="J41" s="173"/>
+      <c r="K41" s="173"/>
+      <c r="L41" s="173"/>
+      <c r="M41" s="173"/>
+      <c r="N41" s="174"/>
+      <c r="P41" s="172"/>
+      <c r="Q41" s="173"/>
+      <c r="R41" s="173"/>
+      <c r="S41" s="173"/>
+      <c r="T41" s="173"/>
+      <c r="U41" s="174"/>
     </row>
     <row r="42" spans="2:28" x14ac:dyDescent="0.25">
-      <c r="I42" s="141" t="s">
+      <c r="I42" s="162" t="s">
         <v>4</v>
       </c>
-      <c r="J42" s="142"/>
-      <c r="K42" s="142"/>
-      <c r="L42" s="142"/>
-      <c r="M42" s="142"/>
-      <c r="N42" s="143"/>
-      <c r="P42" s="141" t="s">
+      <c r="J42" s="163"/>
+      <c r="K42" s="163"/>
+      <c r="L42" s="163"/>
+      <c r="M42" s="163"/>
+      <c r="N42" s="164"/>
+      <c r="P42" s="162" t="s">
         <v>4</v>
       </c>
-      <c r="Q42" s="142"/>
-      <c r="R42" s="142"/>
-      <c r="S42" s="142"/>
-      <c r="T42" s="142"/>
-      <c r="U42" s="143"/>
+      <c r="Q42" s="163"/>
+      <c r="R42" s="163"/>
+      <c r="S42" s="163"/>
+      <c r="T42" s="163"/>
+      <c r="U42" s="164"/>
     </row>
     <row r="43" spans="2:28" x14ac:dyDescent="0.25">
       <c r="I43" s="8" t="s">
@@ -17936,28 +19855,32 @@
     </row>
   </sheetData>
   <mergeCells count="64">
-    <mergeCell ref="X34:AB34"/>
-    <mergeCell ref="X35:AB35"/>
-    <mergeCell ref="X36:AB36"/>
-    <mergeCell ref="X37:AB37"/>
-    <mergeCell ref="W18:AB18"/>
-    <mergeCell ref="W19:AB19"/>
-    <mergeCell ref="W23:AB23"/>
-    <mergeCell ref="W24:AB24"/>
-    <mergeCell ref="W29:AB29"/>
-    <mergeCell ref="B14:G14"/>
-    <mergeCell ref="W2:AB3"/>
-    <mergeCell ref="W4:AB4"/>
-    <mergeCell ref="W8:AB8"/>
-    <mergeCell ref="W9:AB9"/>
-    <mergeCell ref="W13:AB13"/>
-    <mergeCell ref="W14:AB14"/>
-    <mergeCell ref="B2:G3"/>
-    <mergeCell ref="B4:G4"/>
-    <mergeCell ref="B8:G8"/>
-    <mergeCell ref="B9:G9"/>
-    <mergeCell ref="B13:G13"/>
-    <mergeCell ref="P14:U14"/>
+    <mergeCell ref="Q34:U34"/>
+    <mergeCell ref="J36:N36"/>
+    <mergeCell ref="J37:N37"/>
+    <mergeCell ref="I40:N41"/>
+    <mergeCell ref="I42:N42"/>
+    <mergeCell ref="J34:N34"/>
+    <mergeCell ref="J35:N35"/>
+    <mergeCell ref="Q35:U35"/>
+    <mergeCell ref="Q36:U36"/>
+    <mergeCell ref="Q37:U37"/>
+    <mergeCell ref="P40:U41"/>
+    <mergeCell ref="P42:U42"/>
+    <mergeCell ref="I19:N19"/>
+    <mergeCell ref="I23:N23"/>
+    <mergeCell ref="I24:N24"/>
+    <mergeCell ref="I29:N29"/>
+    <mergeCell ref="P2:U3"/>
+    <mergeCell ref="P4:U4"/>
+    <mergeCell ref="P8:U8"/>
+    <mergeCell ref="P9:U9"/>
+    <mergeCell ref="P13:U13"/>
+    <mergeCell ref="P18:U18"/>
+    <mergeCell ref="P19:U19"/>
+    <mergeCell ref="P23:U23"/>
+    <mergeCell ref="P24:U24"/>
+    <mergeCell ref="P29:U29"/>
     <mergeCell ref="C35:G35"/>
     <mergeCell ref="C36:G36"/>
     <mergeCell ref="C37:G37"/>
@@ -17974,32 +19897,28 @@
     <mergeCell ref="B24:G24"/>
     <mergeCell ref="B29:G29"/>
     <mergeCell ref="C34:G34"/>
-    <mergeCell ref="I19:N19"/>
-    <mergeCell ref="I23:N23"/>
-    <mergeCell ref="I24:N24"/>
-    <mergeCell ref="I29:N29"/>
-    <mergeCell ref="P2:U3"/>
-    <mergeCell ref="P4:U4"/>
-    <mergeCell ref="P8:U8"/>
-    <mergeCell ref="P9:U9"/>
-    <mergeCell ref="P13:U13"/>
-    <mergeCell ref="P18:U18"/>
-    <mergeCell ref="P19:U19"/>
-    <mergeCell ref="P23:U23"/>
-    <mergeCell ref="P24:U24"/>
-    <mergeCell ref="P29:U29"/>
-    <mergeCell ref="Q34:U34"/>
-    <mergeCell ref="J36:N36"/>
-    <mergeCell ref="J37:N37"/>
-    <mergeCell ref="I40:N41"/>
-    <mergeCell ref="I42:N42"/>
-    <mergeCell ref="J34:N34"/>
-    <mergeCell ref="J35:N35"/>
-    <mergeCell ref="Q35:U35"/>
-    <mergeCell ref="Q36:U36"/>
-    <mergeCell ref="Q37:U37"/>
-    <mergeCell ref="P40:U41"/>
-    <mergeCell ref="P42:U42"/>
+    <mergeCell ref="B14:G14"/>
+    <mergeCell ref="W2:AB3"/>
+    <mergeCell ref="W4:AB4"/>
+    <mergeCell ref="W8:AB8"/>
+    <mergeCell ref="W9:AB9"/>
+    <mergeCell ref="W13:AB13"/>
+    <mergeCell ref="W14:AB14"/>
+    <mergeCell ref="B2:G3"/>
+    <mergeCell ref="B4:G4"/>
+    <mergeCell ref="B8:G8"/>
+    <mergeCell ref="B9:G9"/>
+    <mergeCell ref="B13:G13"/>
+    <mergeCell ref="P14:U14"/>
+    <mergeCell ref="X34:AB34"/>
+    <mergeCell ref="X35:AB35"/>
+    <mergeCell ref="X36:AB36"/>
+    <mergeCell ref="X37:AB37"/>
+    <mergeCell ref="W18:AB18"/>
+    <mergeCell ref="W19:AB19"/>
+    <mergeCell ref="W23:AB23"/>
+    <mergeCell ref="W24:AB24"/>
+    <mergeCell ref="W29:AB29"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
